--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_13_12.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_13_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1678417.187377492</v>
+        <v>-1679214.730358297</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1508212.476403595</v>
+        <v>1508212.476403594</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681858</v>
+        <v>590120.9651681859</v>
       </c>
     </row>
     <row r="9">
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>5.765157819097949</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>7.293863480540836</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="S8" t="n">
-        <v>7.293863480540836</v>
+        <v>5.765157819097949</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1215,19 +1215,19 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>6.424434953660365</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
+        <v>6.424434953660366</v>
+      </c>
+      <c r="F9" t="n">
         <v>7.293863480540836</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>6.424434953660366</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>6.424434953660365</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="K10" t="n">
         <v>7.293863480540836</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>261.3609342309183</v>
       </c>
       <c r="F11" t="n">
-        <v>285.5367619561717</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>292.5726318999396</v>
@@ -1388,7 +1388,7 @@
         <v>211.0098181035021</v>
       </c>
       <c r="I11" t="n">
-        <v>63.22591095322376</v>
+        <v>63.22591095322375</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,16 +1424,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>75.24813917255264</v>
+        <v>129.6786594938135</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>228.7730154761854</v>
+        <v>210.7747595042962</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>249.1044976068002</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
-        <v>49.26848240303185</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
         <v>146.1124235746456</v>
@@ -1458,13 +1458,13 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>21.74913055918016</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>13.98519180596938</v>
+        <v>13.98519180596936</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>107.7494499164407</v>
       </c>
       <c r="I12" t="n">
         <v>76.83162475308174</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>77.25349169834068</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>121.0775507292826</v>
+        <v>41.98660464280756</v>
       </c>
       <c r="T12" t="n">
-        <v>75.49313824419427</v>
+        <v>75.49313824419426</v>
       </c>
       <c r="U12" t="n">
         <v>102.8815941694963</v>
       </c>
       <c r="V12" t="n">
-        <v>231.9087310396551</v>
+        <v>110.151629515286</v>
       </c>
       <c r="W12" t="n">
         <v>128.2322452256309</v>
       </c>
       <c r="X12" t="n">
-        <v>204.4616296084783</v>
+        <v>82.70452808410911</v>
       </c>
       <c r="Y12" t="n">
-        <v>81.91404989421689</v>
+        <v>130.5090377625923</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58.32658996631467</v>
+        <v>58.32658996631466</v>
       </c>
       <c r="C13" t="n">
-        <v>45.5794514068332</v>
+        <v>45.57945140683319</v>
       </c>
       <c r="D13" t="n">
-        <v>27.24846499015023</v>
+        <v>27.24846499015021</v>
       </c>
       <c r="E13" t="n">
-        <v>25.21752264883004</v>
+        <v>25.21752264883003</v>
       </c>
       <c r="F13" t="n">
-        <v>13.43990499839586</v>
+        <v>24.40191988543535</v>
       </c>
       <c r="G13" t="n">
-        <v>45.89697613459668</v>
+        <v>45.89697613459666</v>
       </c>
       <c r="H13" t="n">
-        <v>37.78306118293751</v>
+        <v>26.82104629589801</v>
       </c>
       <c r="I13" t="n">
-        <v>24.91897904632027</v>
+        <v>24.91897904632026</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.04460299023527</v>
+        <v>41.04460299023525</v>
       </c>
       <c r="S13" t="n">
-        <v>96.49598628451072</v>
+        <v>96.49598628451071</v>
       </c>
       <c r="T13" t="n">
         <v>105.5690890358944</v>
@@ -1594,7 +1594,7 @@
         <v>104.3832584079401</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.99157234339908</v>
+        <v>96.99157234339907</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>261.9593084670259</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>204.7657934461342</v>
       </c>
       <c r="E14" t="n">
         <v>261.3609342309183</v>
@@ -1619,13 +1619,13 @@
         <v>285.5367619561717</v>
       </c>
       <c r="G14" t="n">
-        <v>37.00640043454143</v>
+        <v>292.5726318999396</v>
       </c>
       <c r="H14" t="n">
         <v>211.0098181035021</v>
       </c>
       <c r="I14" t="n">
-        <v>63.22591095322373</v>
+        <v>63.22591095322375</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>72.14368396580706</v>
+        <v>72.14368396580707</v>
       </c>
       <c r="T14" t="n">
-        <v>98.90968818169259</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>129.6786594938135</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>228.7730154761854</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>264.9299702268667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>43.61502408597566</v>
+        <v>43.61502408597568</v>
       </c>
       <c r="C15" t="n">
-        <v>49.26848240303183</v>
+        <v>49.26848240303184</v>
       </c>
       <c r="D15" t="n">
-        <v>24.3553220502764</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
-        <v>34.27633218280467</v>
+        <v>34.27633218280468</v>
       </c>
       <c r="F15" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>135.7422933303385</v>
+        <v>13.98519180596936</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>77.25349169834068</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>163.7437061671767</v>
       </c>
       <c r="T15" t="n">
-        <v>197.2502397685634</v>
+        <v>186.9120992577231</v>
       </c>
       <c r="U15" t="n">
-        <v>137.0470634846845</v>
+        <v>102.8815941694963</v>
       </c>
       <c r="V15" t="n">
         <v>231.9087310396551</v>
@@ -1749,10 +1749,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
-        <v>82.7045280841091</v>
+        <v>82.70452808410911</v>
       </c>
       <c r="Y15" t="n">
-        <v>81.91404989421686</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.32658996631464</v>
+        <v>58.32658996631466</v>
       </c>
       <c r="C16" t="n">
-        <v>45.57945140683317</v>
+        <v>45.57945140683319</v>
       </c>
       <c r="D16" t="n">
-        <v>27.2484649901502</v>
+        <v>27.24846499015021</v>
       </c>
       <c r="E16" t="n">
-        <v>14.25550776178981</v>
+        <v>25.21752264883003</v>
       </c>
       <c r="F16" t="n">
-        <v>24.40191988543533</v>
+        <v>13.43990499839547</v>
       </c>
       <c r="G16" t="n">
-        <v>45.89697613459665</v>
+        <v>45.89697613459666</v>
       </c>
       <c r="H16" t="n">
-        <v>37.78306118293748</v>
+        <v>37.7830611829375</v>
       </c>
       <c r="I16" t="n">
-        <v>24.91897904632025</v>
+        <v>24.91897904632026</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.04460299023524</v>
+        <v>41.04460299023526</v>
       </c>
       <c r="S16" t="n">
-        <v>96.49598628451069</v>
+        <v>96.49598628451071</v>
       </c>
       <c r="T16" t="n">
-        <v>105.5690890358943</v>
+        <v>105.5690890358944</v>
       </c>
       <c r="U16" t="n">
         <v>164.2823227973601</v>
@@ -1831,7 +1831,7 @@
         <v>104.3832584079401</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.99157234339906</v>
+        <v>96.99157234339907</v>
       </c>
     </row>
     <row r="17">
@@ -1920,28 +1920,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>135.7422933303385</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>107.7494499164407</v>
       </c>
       <c r="I18" t="n">
-        <v>76.83162475308174</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>77.25349169834068</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>163.7437061671767</v>
       </c>
       <c r="T18" t="n">
-        <v>197.2502397685634</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>224.6386956938654</v>
@@ -1986,10 +1986,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X18" t="n">
-        <v>43.96103182171129</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>192.0347803431932</v>
       </c>
     </row>
     <row r="19">
@@ -2065,10 +2065,10 @@
         <v>62.73526704459195</v>
       </c>
       <c r="X19" t="n">
-        <v>198.6508245292364</v>
+        <v>2.78305008948567</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>195.8677744397509</v>
       </c>
     </row>
     <row r="20">
@@ -2141,7 +2141,7 @@
         <v>105.1759116796958</v>
       </c>
       <c r="W20" t="n">
-        <v>127.1728071577307</v>
+        <v>127.172807157731</v>
       </c>
       <c r="X20" t="n">
         <v>147.5042892883458</v>
@@ -2166,13 +2166,13 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>135.7422933303385</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2208,22 +2208,22 @@
         <v>77.25349169834067</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>163.7437061671767</v>
       </c>
       <c r="T21" t="n">
-        <v>197.2502397685634</v>
+        <v>18.06910895281537</v>
       </c>
       <c r="U21" t="n">
-        <v>1.281385851041859</v>
+        <v>224.6386956938654</v>
       </c>
       <c r="V21" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>227.0889024316686</v>
+        <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>195.8677744397509</v>
       </c>
       <c r="T22" t="n">
-        <v>199.8366551571908</v>
+        <v>3.968880717439919</v>
       </c>
       <c r="U22" t="n">
         <v>62.6821144789056</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>28.07845117535906</v>
+        <v>28.07845117535905</v>
       </c>
       <c r="V23" t="n">
         <v>105.1759116796958</v>
@@ -2394,16 +2394,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>170.5295237560831</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
         <v>143.5062320835493</v>
@@ -2412,7 +2412,7 @@
         <v>135.7422933303385</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>107.7494499164407</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,22 +2445,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>163.7437061671767</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>1.281385851041859</v>
+        <v>224.6386956938654</v>
       </c>
       <c r="V24" t="n">
-        <v>231.9087310396551</v>
+        <v>8.551421196831541</v>
       </c>
       <c r="W24" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X24" t="n">
-        <v>204.4616296084783</v>
+        <v>112.8366891841155</v>
       </c>
       <c r="Y24" t="n">
         <v>203.671151418586</v>
@@ -2491,13 +2491,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>159.5401627073066</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>36.32761173244423</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>3.968880717439919</v>
+        <v>199.8366551571908</v>
       </c>
       <c r="U25" t="n">
         <v>62.6821144789056</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>23.2052859955173</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
         <v>171.025583927401</v>
@@ -2643,13 +2643,13 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F27" t="n">
-        <v>143.5062320835493</v>
+        <v>1.339392468721769</v>
       </c>
       <c r="G27" t="n">
-        <v>120.7629012154411</v>
+        <v>86.34551151705446</v>
       </c>
       <c r="H27" t="n">
-        <v>107.7494499164407</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>163.7437061671767</v>
+        <v>21.57686655234918</v>
       </c>
       <c r="T27" t="n">
-        <v>55.08340015373589</v>
+        <v>197.2502397685634</v>
       </c>
       <c r="U27" t="n">
-        <v>82.47185607903792</v>
+        <v>224.6386956938654</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
@@ -2795,7 +2795,7 @@
         <v>224.8182560641151</v>
       </c>
       <c r="D29" t="n">
-        <v>214.4378931397708</v>
+        <v>214.4378931397709</v>
       </c>
       <c r="E29" t="n">
         <v>240.9511961404599</v>
@@ -2810,7 +2810,7 @@
         <v>190.6000800130437</v>
       </c>
       <c r="I29" t="n">
-        <v>42.81617286276535</v>
+        <v>42.81617286276538</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.73394587534867</v>
+        <v>51.7339458753487</v>
       </c>
       <c r="T29" t="n">
-        <v>78.4999500912342</v>
+        <v>78.49995009123423</v>
       </c>
       <c r="U29" t="n">
         <v>109.2689214033551</v>
@@ -2852,10 +2852,10 @@
         <v>186.3663819076918</v>
       </c>
       <c r="W29" t="n">
-        <v>208.363277385727</v>
+        <v>208.3632773857271</v>
       </c>
       <c r="X29" t="n">
-        <v>228.6947595163418</v>
+        <v>228.6947595163419</v>
       </c>
       <c r="Y29" t="n">
         <v>244.5202321364083</v>
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>23.20528599551727</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
         <v>171.025583927401</v>
@@ -2883,13 +2883,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>135.7422933303385</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>86.34551151705423</v>
       </c>
       <c r="I30" t="n">
-        <v>76.83162475308174</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>77.25349169834067</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>163.7437061671767</v>
+        <v>21.57686655234918</v>
       </c>
       <c r="T30" t="n">
-        <v>135.9351811186843</v>
+        <v>55.08340015373589</v>
       </c>
       <c r="U30" t="n">
         <v>224.6386956938654</v>
@@ -2934,10 +2934,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X30" t="n">
-        <v>62.29478999365071</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
-        <v>61.50431180375847</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="31">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>37.91685187585625</v>
+        <v>37.91685187585628</v>
       </c>
       <c r="C31" t="n">
-        <v>25.16971331637478</v>
+        <v>25.16971331637481</v>
       </c>
       <c r="D31" t="n">
-        <v>6.838726899691807</v>
+        <v>6.838726899691835</v>
       </c>
       <c r="E31" t="n">
-        <v>4.807784558371623</v>
+        <v>4.807784558371651</v>
       </c>
       <c r="F31" t="n">
-        <v>3.992181794976943</v>
+        <v>3.992181794976972</v>
       </c>
       <c r="G31" t="n">
-        <v>25.48723804413826</v>
+        <v>25.48723804413829</v>
       </c>
       <c r="H31" t="n">
-        <v>17.37332309247909</v>
+        <v>17.37332309247912</v>
       </c>
       <c r="I31" t="n">
-        <v>4.509240955861858</v>
+        <v>4.509240955861887</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>20.63486489977685</v>
+        <v>20.63486489977688</v>
       </c>
       <c r="S31" t="n">
-        <v>76.0862481940523</v>
+        <v>76.08624819405233</v>
       </c>
       <c r="T31" t="n">
-        <v>85.15935094543595</v>
+        <v>85.15935094543597</v>
       </c>
       <c r="U31" t="n">
         <v>143.8725847069016</v>
@@ -3013,10 +3013,10 @@
         <v>143.925737272588</v>
       </c>
       <c r="X31" t="n">
-        <v>83.9735203174817</v>
+        <v>83.97352031748173</v>
       </c>
       <c r="Y31" t="n">
-        <v>76.58183425294067</v>
+        <v>76.58183425294069</v>
       </c>
     </row>
     <row r="32">
@@ -3117,13 +3117,13 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>90.11964823642532</v>
+        <v>89.57197234546209</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>163.7437061671767</v>
+        <v>19.68979819266369</v>
       </c>
       <c r="T33" t="n">
-        <v>53.1963317940504</v>
+        <v>197.2502397685634</v>
       </c>
       <c r="U33" t="n">
-        <v>80.58478771935243</v>
+        <v>224.6386956938654</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
@@ -3342,28 +3342,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.7422933303385</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>107.7494499164407</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>76.83162475308174</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>178.152552554375</v>
+        <v>198.2740676445747</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -3411,7 +3411,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>189.0745746101434</v>
+        <v>6.659400854201738</v>
       </c>
       <c r="U37" t="n">
         <v>65.37263461566742</v>
@@ -3490,7 +3490,7 @@
         <v>5.473570226247489</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>182.4151737559417</v>
       </c>
     </row>
     <row r="38">
@@ -3585,22 +3585,22 @@
         <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>49.21274594601199</v>
       </c>
       <c r="H39" t="n">
-        <v>65.73160449511265</v>
+        <v>107.7494499164407</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>76.83162475308174</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,19 +3630,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>163.7437061671767</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>3.971905987803678</v>
+        <v>224.6386956938654</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W39" t="n">
-        <v>29.32255704393828</v>
+        <v>249.98934675</v>
       </c>
       <c r="X39" t="n">
         <v>204.4616296084783</v>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>159.5401627073066</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3724,10 +3724,10 @@
         <v>65.42578718135377</v>
       </c>
       <c r="X40" t="n">
-        <v>5.473570226247489</v>
+        <v>28.34858127488253</v>
       </c>
       <c r="Y40" t="n">
-        <v>182.4151737559417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>213.3930779903646</v>
       </c>
       <c r="G41" t="n">
-        <v>220.4289479341324</v>
+        <v>220.4289479341325</v>
       </c>
       <c r="H41" t="n">
         <v>138.866134137695</v>
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>26.76600421588547</v>
+        <v>26.76600421588552</v>
       </c>
       <c r="U41" t="n">
-        <v>57.53497552800636</v>
+        <v>57.53497552800638</v>
       </c>
       <c r="V41" t="n">
         <v>134.6324360323431</v>
@@ -3806,7 +3806,7 @@
         <v>176.9608136409931</v>
       </c>
       <c r="Y41" t="n">
-        <v>192.7862862610595</v>
+        <v>192.7862862610596</v>
       </c>
     </row>
     <row r="42">
@@ -3831,10 +3831,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.7422933303385</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>107.7494499164407</v>
       </c>
       <c r="I42" t="n">
         <v>76.83162475308174</v>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>59.26816130359489</v>
+        <v>9.677203546991027</v>
       </c>
       <c r="U42" t="n">
         <v>224.6386956938654</v>
@@ -3885,7 +3885,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.671151418586</v>
+        <v>9.770365928409774</v>
       </c>
     </row>
     <row r="43">
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.35230231870358</v>
+        <v>24.35230231870361</v>
       </c>
       <c r="T43" t="n">
-        <v>33.42540507008722</v>
+        <v>33.42540507008725</v>
       </c>
       <c r="U43" t="n">
-        <v>92.13863883155291</v>
+        <v>92.13863883155294</v>
       </c>
       <c r="V43" t="n">
-        <v>59.03556557676288</v>
+        <v>59.03556557676291</v>
       </c>
       <c r="W43" t="n">
-        <v>92.19179139723926</v>
+        <v>92.19179139723929</v>
       </c>
       <c r="X43" t="n">
-        <v>32.23957444213298</v>
+        <v>32.23957444213301</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.84788837759194</v>
+        <v>24.84788837759197</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3980,7 @@
         <v>173.0843101887664</v>
       </c>
       <c r="D44" t="n">
-        <v>162.7039472644222</v>
+        <v>162.7039472644221</v>
       </c>
       <c r="E44" t="n">
         <v>189.2172502651112</v>
@@ -4028,19 +4028,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>26.76600421588553</v>
+        <v>26.76600421588552</v>
       </c>
       <c r="U44" t="n">
-        <v>57.53497552800642</v>
+        <v>57.53497552800638</v>
       </c>
       <c r="V44" t="n">
         <v>134.6324360323431</v>
       </c>
       <c r="W44" t="n">
-        <v>156.6293315103784</v>
+        <v>156.6293315103783</v>
       </c>
       <c r="X44" t="n">
-        <v>176.9608136409932</v>
+        <v>176.9608136409931</v>
       </c>
       <c r="Y44" t="n">
         <v>192.7862862610596</v>
@@ -4065,7 +4065,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>35.25936599632173</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4101,19 +4101,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>77.25349169834064</v>
+        <v>77.25349169834067</v>
       </c>
       <c r="S45" t="n">
         <v>163.7437061671767</v>
       </c>
       <c r="T45" t="n">
-        <v>3.349454278387189</v>
+        <v>197.2502397685634</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6386956938654</v>
+        <v>116.3918296066375</v>
       </c>
       <c r="V45" t="n">
-        <v>231.9087310396551</v>
+        <v>38.00794554947888</v>
       </c>
       <c r="W45" t="n">
         <v>249.98934675</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>24.35230231870364</v>
+        <v>24.35230231870361</v>
       </c>
       <c r="T46" t="n">
-        <v>33.42540507008728</v>
+        <v>33.42540507008725</v>
       </c>
       <c r="U46" t="n">
-        <v>92.13863883155297</v>
+        <v>92.13863883155294</v>
       </c>
       <c r="V46" t="n">
-        <v>59.03556557676293</v>
+        <v>59.03556557676291</v>
       </c>
       <c r="W46" t="n">
-        <v>92.19179139723931</v>
+        <v>92.19179139723929</v>
       </c>
       <c r="X46" t="n">
-        <v>32.23957444213303</v>
+        <v>32.23957444213301</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.847888377592</v>
+        <v>24.84788837759197</v>
       </c>
     </row>
   </sheetData>
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.80791505293017</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="C8" t="n">
-        <v>21.80791505293017</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="D8" t="n">
-        <v>21.80791505293017</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="E8" t="n">
         <v>15.9845233164676</v>
@@ -4808,46 +4808,46 @@
         <v>0.5835090784432668</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5835090784432668</v>
+        <v>7.512679384957064</v>
       </c>
       <c r="M8" t="n">
-        <v>3.493732152831573</v>
+        <v>14.73360423069249</v>
       </c>
       <c r="N8" t="n">
-        <v>10.714656998567</v>
+        <v>21.95452907642792</v>
       </c>
       <c r="O8" t="n">
-        <v>17.93558184430243</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="P8" t="n">
-        <v>25.15650669003785</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="Q8" t="n">
         <v>29.17545392216334</v>
       </c>
       <c r="R8" t="n">
-        <v>29.17545392216334</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="S8" t="n">
-        <v>21.80791505293017</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="T8" t="n">
-        <v>21.80791505293017</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="U8" t="n">
-        <v>21.80791505293017</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="V8" t="n">
-        <v>21.80791505293017</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="W8" t="n">
-        <v>21.80791505293017</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="X8" t="n">
-        <v>21.80791505293017</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.80791505293017</v>
+        <v>15.9845233164676</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.440376183697</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="C9" t="n">
-        <v>14.440376183697</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="D9" t="n">
+        <v>29.17545392216334</v>
+      </c>
+      <c r="E9" t="n">
+        <v>22.68612568614277</v>
+      </c>
+      <c r="F9" t="n">
+        <v>15.3185868169096</v>
+      </c>
+      <c r="G9" t="n">
         <v>7.951047947676434</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.5835090784432668</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.5835090784432668</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.5835090784432668</v>
       </c>
       <c r="H9" t="n">
         <v>0.5835090784432668</v>
@@ -4884,49 +4884,49 @@
         <v>7.804433924178694</v>
       </c>
       <c r="K9" t="n">
-        <v>15.02535876991412</v>
+        <v>7.804433924178694</v>
       </c>
       <c r="L9" t="n">
+        <v>7.804433924178694</v>
+      </c>
+      <c r="M9" t="n">
+        <v>7.804433924178694</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7.804433924178694</v>
+      </c>
+      <c r="O9" t="n">
+        <v>14.73360423069249</v>
+      </c>
+      <c r="P9" t="n">
         <v>21.95452907642792</v>
-      </c>
-      <c r="M9" t="n">
-        <v>21.95452907642792</v>
-      </c>
-      <c r="N9" t="n">
-        <v>21.95452907642792</v>
-      </c>
-      <c r="O9" t="n">
-        <v>21.95452907642792</v>
-      </c>
-      <c r="P9" t="n">
-        <v>29.17545392216334</v>
       </c>
       <c r="Q9" t="n">
         <v>29.17545392216334</v>
       </c>
       <c r="R9" t="n">
-        <v>21.80791505293017</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="S9" t="n">
-        <v>21.80791505293017</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="T9" t="n">
-        <v>21.80791505293017</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="U9" t="n">
-        <v>14.440376183697</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="V9" t="n">
-        <v>14.440376183697</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="W9" t="n">
-        <v>14.440376183697</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="X9" t="n">
-        <v>14.440376183697</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.440376183697</v>
+        <v>29.17545392216334</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.440376183697</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="C10" t="n">
-        <v>14.440376183697</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="D10" t="n">
-        <v>14.440376183697</v>
+        <v>22.68612568614277</v>
       </c>
       <c r="E10" t="n">
-        <v>14.440376183697</v>
+        <v>15.3185868169096</v>
       </c>
       <c r="F10" t="n">
-        <v>14.440376183697</v>
+        <v>15.3185868169096</v>
       </c>
       <c r="G10" t="n">
-        <v>14.440376183697</v>
+        <v>15.3185868169096</v>
       </c>
       <c r="H10" t="n">
-        <v>14.440376183697</v>
+        <v>15.3185868169096</v>
       </c>
       <c r="I10" t="n">
-        <v>7.951047947676434</v>
+        <v>15.3185868169096</v>
       </c>
       <c r="J10" t="n">
         <v>7.951047947676434</v>
@@ -4966,16 +4966,16 @@
         <v>0.5835090784432668</v>
       </c>
       <c r="L10" t="n">
-        <v>7.512679384957064</v>
+        <v>7.804433924178694</v>
       </c>
       <c r="M10" t="n">
-        <v>14.73360423069249</v>
+        <v>15.02535876991412</v>
       </c>
       <c r="N10" t="n">
-        <v>21.95452907642792</v>
+        <v>22.24628361564955</v>
       </c>
       <c r="O10" t="n">
-        <v>29.17545392216334</v>
+        <v>23.11465224246634</v>
       </c>
       <c r="P10" t="n">
         <v>29.17545392216334</v>
@@ -5002,10 +5002,10 @@
         <v>29.17545392216334</v>
       </c>
       <c r="X10" t="n">
-        <v>21.80791505293017</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.440376183697</v>
+        <v>29.17545392216334</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1396.242126847</v>
+        <v>1107.821155174099</v>
       </c>
       <c r="C11" t="n">
-        <v>1396.242126847</v>
+        <v>1107.821155174099</v>
       </c>
       <c r="D11" t="n">
-        <v>1159.022297321516</v>
+        <v>870.6013256486153</v>
       </c>
       <c r="E11" t="n">
-        <v>895.0213536539218</v>
+        <v>606.600381981021</v>
       </c>
       <c r="F11" t="n">
-        <v>606.6003819810211</v>
+        <v>606.600381981021</v>
       </c>
       <c r="G11" t="n">
-        <v>311.0724709709811</v>
+        <v>311.072470970981</v>
       </c>
       <c r="H11" t="n">
-        <v>97.93124056340316</v>
+        <v>97.93124056340315</v>
       </c>
       <c r="I11" t="n">
-        <v>34.06668404499531</v>
+        <v>34.06668404499532</v>
       </c>
       <c r="J11" t="n">
-        <v>77.52981832403452</v>
+        <v>77.52981832403441</v>
       </c>
       <c r="K11" t="n">
-        <v>264.9463826846388</v>
+        <v>264.9463826846386</v>
       </c>
       <c r="L11" t="n">
-        <v>549.4222814033734</v>
+        <v>549.4222814033733</v>
       </c>
       <c r="M11" t="n">
-        <v>881.1688252235102</v>
+        <v>881.1688252235101</v>
       </c>
       <c r="N11" t="n">
         <v>1202.766199960721</v>
@@ -5057,7 +5057,7 @@
         <v>1460.31313013439</v>
       </c>
       <c r="P11" t="n">
-        <v>1643.184683310794</v>
+        <v>1643.184683310795</v>
       </c>
       <c r="Q11" t="n">
         <v>1703.334202249766</v>
@@ -5072,19 +5072,19 @@
         <v>1703.334202249766</v>
       </c>
       <c r="U11" t="n">
-        <v>1627.325980863349</v>
+        <v>1572.34565730652</v>
       </c>
       <c r="V11" t="n">
-        <v>1627.325980863349</v>
+        <v>1572.34565730652</v>
       </c>
       <c r="W11" t="n">
-        <v>1396.242126847</v>
+        <v>1359.441859827433</v>
       </c>
       <c r="X11" t="n">
-        <v>1396.242126847</v>
+        <v>1107.821155174099</v>
       </c>
       <c r="Y11" t="n">
-        <v>1396.242126847</v>
+        <v>1107.821155174099</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>502.7336404117453</v>
+        <v>857.5454110836433</v>
       </c>
       <c r="C12" t="n">
-        <v>452.967496570299</v>
+        <v>684.7922960054605</v>
       </c>
       <c r="D12" t="n">
-        <v>305.3791899292429</v>
+        <v>537.2039893644044</v>
       </c>
       <c r="E12" t="n">
-        <v>147.7696609320976</v>
+        <v>379.5944603672591</v>
       </c>
       <c r="F12" t="n">
-        <v>125.800842185451</v>
+        <v>234.638670383876</v>
       </c>
       <c r="G12" t="n">
-        <v>111.674385815785</v>
+        <v>220.51221401421</v>
       </c>
       <c r="H12" t="n">
         <v>111.674385815785</v>
       </c>
       <c r="I12" t="n">
-        <v>34.06668404499531</v>
+        <v>34.06668404499532</v>
       </c>
       <c r="J12" t="n">
-        <v>67.73507425119428</v>
+        <v>34.06668404499532</v>
       </c>
       <c r="K12" t="n">
-        <v>251.8853289681629</v>
+        <v>218.216938761964</v>
       </c>
       <c r="L12" t="n">
-        <v>560.3476789512649</v>
+        <v>526.6792887450661</v>
       </c>
       <c r="M12" t="n">
-        <v>579.3552536049087</v>
+        <v>939.4404960209547</v>
       </c>
       <c r="N12" t="n">
-        <v>1000.930468661726</v>
+        <v>1361.015711077772</v>
       </c>
       <c r="O12" t="n">
-        <v>1334.978985555875</v>
+        <v>1695.064227971921</v>
       </c>
       <c r="P12" t="n">
-        <v>1586.655829522214</v>
+        <v>1703.334202249766</v>
       </c>
       <c r="Q12" t="n">
         <v>1703.334202249766</v>
       </c>
       <c r="R12" t="n">
-        <v>1625.300372251442</v>
+        <v>1703.334202249766</v>
       </c>
       <c r="S12" t="n">
-        <v>1502.999815959237</v>
+        <v>1660.923490489354</v>
       </c>
       <c r="T12" t="n">
-        <v>1426.744120763081</v>
+        <v>1584.667795293198</v>
       </c>
       <c r="U12" t="n">
-        <v>1322.823318571671</v>
+        <v>1480.746993101788</v>
       </c>
       <c r="V12" t="n">
-        <v>1088.572075097272</v>
+        <v>1369.482720864125</v>
       </c>
       <c r="W12" t="n">
-        <v>959.0445546673413</v>
+        <v>1239.955200434195</v>
       </c>
       <c r="X12" t="n">
-        <v>752.5176560729188</v>
+        <v>1156.415273076509</v>
       </c>
       <c r="Y12" t="n">
-        <v>669.7761915333058</v>
+        <v>1024.587962205204</v>
       </c>
     </row>
     <row r="13">
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>256.3741188006148</v>
+        <v>256.3741188006151</v>
       </c>
       <c r="C13" t="n">
-        <v>210.3342688947226</v>
+        <v>210.334268894723</v>
       </c>
       <c r="D13" t="n">
-        <v>182.8105668844699</v>
+        <v>182.8105668844703</v>
       </c>
       <c r="E13" t="n">
-        <v>157.3383217846416</v>
+        <v>157.338321784642</v>
       </c>
       <c r="F13" t="n">
-        <v>143.7626601701008</v>
+        <v>132.6899178599598</v>
       </c>
       <c r="G13" t="n">
-        <v>97.40207821596277</v>
+        <v>86.32933590582178</v>
       </c>
       <c r="H13" t="n">
         <v>59.23736995036932</v>
       </c>
       <c r="I13" t="n">
-        <v>34.06668404499531</v>
+        <v>34.06668404499532</v>
       </c>
       <c r="J13" t="n">
-        <v>83.13989847667906</v>
+        <v>83.13989847667912</v>
       </c>
       <c r="K13" t="n">
-        <v>216.1412697719311</v>
+        <v>216.141269771931</v>
       </c>
       <c r="L13" t="n">
-        <v>408.4312811621189</v>
+        <v>408.431281162119</v>
       </c>
       <c r="M13" t="n">
-        <v>615.2145332229362</v>
+        <v>615.2145332229363</v>
       </c>
       <c r="N13" t="n">
-        <v>825.0883642442907</v>
+        <v>825.0883642442908</v>
       </c>
       <c r="O13" t="n">
         <v>1012.805983896565</v>
@@ -5224,25 +5224,25 @@
         <v>1187.246385205701</v>
       </c>
       <c r="S13" t="n">
-        <v>1089.775691989023</v>
+        <v>1089.775691989024</v>
       </c>
       <c r="T13" t="n">
-        <v>983.140248518423</v>
+        <v>983.1402485184234</v>
       </c>
       <c r="U13" t="n">
-        <v>817.1985083190697</v>
+        <v>817.1985083190698</v>
       </c>
       <c r="V13" t="n">
-        <v>684.6942158518272</v>
+        <v>684.6942158518273</v>
       </c>
       <c r="W13" t="n">
-        <v>518.6987861921843</v>
+        <v>518.6987861921845</v>
       </c>
       <c r="X13" t="n">
-        <v>413.2611514366893</v>
+        <v>413.2611514366894</v>
       </c>
       <c r="Y13" t="n">
-        <v>315.2898662413367</v>
+        <v>315.2898662413368</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>900.8745887706087</v>
+        <v>1365.856432115591</v>
       </c>
       <c r="C14" t="n">
-        <v>900.8745887706087</v>
+        <v>1365.856432115591</v>
       </c>
       <c r="D14" t="n">
-        <v>900.8745887706087</v>
+        <v>1159.022297321516</v>
       </c>
       <c r="E14" t="n">
-        <v>636.8736451030145</v>
+        <v>895.0213536539216</v>
       </c>
       <c r="F14" t="n">
-        <v>348.4526734301137</v>
+        <v>606.6003819810207</v>
       </c>
       <c r="G14" t="n">
-        <v>311.072470970981</v>
+        <v>311.0724709709808</v>
       </c>
       <c r="H14" t="n">
-        <v>97.93124056340314</v>
+        <v>97.93124056340315</v>
       </c>
       <c r="I14" t="n">
         <v>34.06668404499532</v>
       </c>
       <c r="J14" t="n">
-        <v>77.52981832403455</v>
+        <v>77.52981832403452</v>
       </c>
       <c r="K14" t="n">
         <v>264.9463826846388</v>
@@ -5306,22 +5306,22 @@
         <v>1630.461794203496</v>
       </c>
       <c r="T14" t="n">
-        <v>1530.553018262392</v>
+        <v>1630.461794203496</v>
       </c>
       <c r="U14" t="n">
-        <v>1399.564473319146</v>
+        <v>1630.461794203496</v>
       </c>
       <c r="V14" t="n">
-        <v>1399.564473319146</v>
+        <v>1630.461794203496</v>
       </c>
       <c r="W14" t="n">
-        <v>1168.480619302797</v>
+        <v>1630.461794203496</v>
       </c>
       <c r="X14" t="n">
-        <v>1168.480619302797</v>
+        <v>1630.461794203496</v>
       </c>
       <c r="Y14" t="n">
-        <v>900.8745887706087</v>
+        <v>1630.461794203496</v>
       </c>
     </row>
     <row r="15">
@@ -5337,13 +5337,13 @@
         <v>375.3597947995094</v>
       </c>
       <c r="D15" t="n">
-        <v>350.7584593951898</v>
+        <v>227.7714881584533</v>
       </c>
       <c r="E15" t="n">
-        <v>316.135901634781</v>
+        <v>193.1489303980445</v>
       </c>
       <c r="F15" t="n">
-        <v>171.1801116513979</v>
+        <v>48.19314041466134</v>
       </c>
       <c r="G15" t="n">
         <v>34.06668404499532</v>
@@ -5358,46 +5358,46 @@
         <v>67.73507425119428</v>
       </c>
       <c r="K15" t="n">
-        <v>251.8853289681629</v>
+        <v>251.885328968163</v>
       </c>
       <c r="L15" t="n">
-        <v>560.3476789512649</v>
+        <v>251.885328968163</v>
       </c>
       <c r="M15" t="n">
-        <v>973.1088862271536</v>
+        <v>664.6465362440516</v>
       </c>
       <c r="N15" t="n">
-        <v>1394.684101283971</v>
+        <v>1086.221751300869</v>
       </c>
       <c r="O15" t="n">
-        <v>1451.657358283427</v>
+        <v>1420.270268195018</v>
       </c>
       <c r="P15" t="n">
-        <v>1703.334202249766</v>
+        <v>1586.655829522214</v>
       </c>
       <c r="Q15" t="n">
         <v>1703.334202249766</v>
       </c>
       <c r="R15" t="n">
-        <v>1625.300372251442</v>
+        <v>1703.334202249766</v>
       </c>
       <c r="S15" t="n">
-        <v>1459.902689254294</v>
+        <v>1537.936519252618</v>
       </c>
       <c r="T15" t="n">
-        <v>1260.660022821402</v>
+        <v>1349.136418992291</v>
       </c>
       <c r="U15" t="n">
-        <v>1122.228645564144</v>
+        <v>1245.215616800881</v>
       </c>
       <c r="V15" t="n">
-        <v>887.9774020897453</v>
+        <v>1010.964373326482</v>
       </c>
       <c r="W15" t="n">
-        <v>635.4629104230786</v>
+        <v>758.4498816598151</v>
       </c>
       <c r="X15" t="n">
-        <v>551.9229830653926</v>
+        <v>674.9099543021291</v>
       </c>
       <c r="Y15" t="n">
         <v>469.1815185257796</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>256.3741188006144</v>
+        <v>256.3741188006149</v>
       </c>
       <c r="C16" t="n">
-        <v>210.3342688947224</v>
+        <v>210.3342688947228</v>
       </c>
       <c r="D16" t="n">
-        <v>182.8105668844696</v>
+        <v>182.81056688447</v>
       </c>
       <c r="E16" t="n">
-        <v>168.4110640947829</v>
+        <v>157.3383217846417</v>
       </c>
       <c r="F16" t="n">
         <v>143.7626601701008</v>
       </c>
       <c r="G16" t="n">
-        <v>97.40207821596272</v>
+        <v>97.40207821596275</v>
       </c>
       <c r="H16" t="n">
-        <v>59.2373699503693</v>
+        <v>59.23736995036931</v>
       </c>
       <c r="I16" t="n">
         <v>34.06668404499532</v>
       </c>
       <c r="J16" t="n">
-        <v>83.13989847667915</v>
+        <v>83.13989847667926</v>
       </c>
       <c r="K16" t="n">
-        <v>216.1412697719312</v>
+        <v>216.1412697719313</v>
       </c>
       <c r="L16" t="n">
-        <v>408.431281162119</v>
+        <v>408.4312811621191</v>
       </c>
       <c r="M16" t="n">
-        <v>615.2145332229362</v>
+        <v>615.2145332229363</v>
       </c>
       <c r="N16" t="n">
-        <v>825.0883642442907</v>
+        <v>825.0883642442908</v>
       </c>
       <c r="O16" t="n">
         <v>1012.805983896565</v>
@@ -5464,22 +5464,22 @@
         <v>1089.775691989024</v>
       </c>
       <c r="T16" t="n">
-        <v>983.1402485184236</v>
+        <v>983.140248518423</v>
       </c>
       <c r="U16" t="n">
-        <v>817.1985083190693</v>
+        <v>817.1985083190698</v>
       </c>
       <c r="V16" t="n">
-        <v>684.6942158518269</v>
+        <v>684.6942158518273</v>
       </c>
       <c r="W16" t="n">
-        <v>518.6987861921841</v>
+        <v>518.6987861921845</v>
       </c>
       <c r="X16" t="n">
-        <v>413.2611514366889</v>
+        <v>413.2611514366894</v>
       </c>
       <c r="Y16" t="n">
-        <v>315.2898662413363</v>
+        <v>315.2898662413368</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>964.3237766355081</v>
       </c>
       <c r="C17" t="n">
-        <v>819.2452050838726</v>
+        <v>819.2452050838727</v>
       </c>
       <c r="D17" t="n">
         <v>684.6518486073327</v>
@@ -5513,7 +5513,7 @@
         <v>34.06668404499532</v>
       </c>
       <c r="J17" t="n">
-        <v>77.5298183240343</v>
+        <v>77.52981832403441</v>
       </c>
       <c r="K17" t="n">
         <v>264.9463826846386</v>
@@ -5525,7 +5525,7 @@
         <v>881.1688252235101</v>
       </c>
       <c r="N17" t="n">
-        <v>1202.76619996072</v>
+        <v>1202.766199960721</v>
       </c>
       <c r="O17" t="n">
         <v>1460.31313013439</v>
@@ -5552,7 +5552,7 @@
         <v>1568.733835729508</v>
       </c>
       <c r="W17" t="n">
-        <v>1440.276454762104</v>
+        <v>1440.276454762103</v>
       </c>
       <c r="X17" t="n">
         <v>1291.282223157714</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>502.5814316039956</v>
+        <v>463.2459339626593</v>
       </c>
       <c r="C18" t="n">
-        <v>502.5814316039956</v>
+        <v>290.4928188844764</v>
       </c>
       <c r="D18" t="n">
-        <v>502.5814316039956</v>
+        <v>142.9045122434203</v>
       </c>
       <c r="E18" t="n">
-        <v>502.5814316039956</v>
+        <v>142.9045122434203</v>
       </c>
       <c r="F18" t="n">
-        <v>357.6256416206125</v>
+        <v>142.9045122434203</v>
       </c>
       <c r="G18" t="n">
-        <v>220.51221401421</v>
+        <v>142.9045122434203</v>
       </c>
       <c r="H18" t="n">
-        <v>111.674385815785</v>
+        <v>34.06668404499532</v>
       </c>
       <c r="I18" t="n">
         <v>34.06668404499532</v>
@@ -5595,49 +5595,49 @@
         <v>34.06668404499532</v>
       </c>
       <c r="K18" t="n">
-        <v>34.06668404499532</v>
+        <v>218.216938761964</v>
       </c>
       <c r="L18" t="n">
-        <v>342.5290340280973</v>
+        <v>526.6792887450661</v>
       </c>
       <c r="M18" t="n">
-        <v>755.290241303986</v>
+        <v>939.4404960209547</v>
       </c>
       <c r="N18" t="n">
-        <v>1176.865456360803</v>
+        <v>1000.930468661726</v>
       </c>
       <c r="O18" t="n">
-        <v>1510.913973254952</v>
+        <v>1334.978985555875</v>
       </c>
       <c r="P18" t="n">
-        <v>1703.334202249766</v>
+        <v>1586.655829522214</v>
       </c>
       <c r="Q18" t="n">
         <v>1703.334202249766</v>
       </c>
       <c r="R18" t="n">
-        <v>1625.300372251442</v>
+        <v>1703.334202249766</v>
       </c>
       <c r="S18" t="n">
-        <v>1459.902689254294</v>
+        <v>1537.936519252618</v>
       </c>
       <c r="T18" t="n">
-        <v>1260.660022821402</v>
+        <v>1537.936519252618</v>
       </c>
       <c r="U18" t="n">
-        <v>1033.752249393255</v>
+        <v>1311.028745824471</v>
       </c>
       <c r="V18" t="n">
-        <v>799.5010059188555</v>
+        <v>1076.777502350071</v>
       </c>
       <c r="W18" t="n">
-        <v>546.9865142521888</v>
+        <v>824.2630106834048</v>
       </c>
       <c r="X18" t="n">
-        <v>502.5814316039956</v>
+        <v>824.2630106834048</v>
       </c>
       <c r="Y18" t="n">
-        <v>502.5814316039956</v>
+        <v>630.2884850842197</v>
       </c>
     </row>
     <row r="19">
@@ -5674,7 +5674,7 @@
         <v>34.06668404499532</v>
       </c>
       <c r="K19" t="n">
-        <v>46.5285248311219</v>
+        <v>46.52852483112191</v>
       </c>
       <c r="L19" t="n">
         <v>118.2790057121843</v>
@@ -5686,34 +5686,34 @@
         <v>293.8570277761052</v>
       </c>
       <c r="O19" t="n">
-        <v>361.0351169192538</v>
+        <v>361.0351169192539</v>
       </c>
       <c r="P19" t="n">
-        <v>395.2950961604392</v>
+        <v>395.2950961604394</v>
       </c>
       <c r="Q19" t="n">
-        <v>395.2950961604392</v>
+        <v>395.2950961604394</v>
       </c>
       <c r="R19" t="n">
-        <v>395.2950961604392</v>
+        <v>395.2950961604394</v>
       </c>
       <c r="S19" t="n">
-        <v>395.2950961604392</v>
+        <v>395.2950961604394</v>
       </c>
       <c r="T19" t="n">
-        <v>391.2861257387827</v>
+        <v>391.2861257387829</v>
       </c>
       <c r="U19" t="n">
-        <v>327.9708585883731</v>
+        <v>327.9708585883732</v>
       </c>
       <c r="V19" t="n">
-        <v>298.0930391700745</v>
+        <v>298.0930391700746</v>
       </c>
       <c r="W19" t="n">
-        <v>234.7240825593756</v>
+        <v>234.7240825593757</v>
       </c>
       <c r="X19" t="n">
-        <v>34.06668404499532</v>
+        <v>231.9129208528245</v>
       </c>
       <c r="Y19" t="n">
         <v>34.06668404499532</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>964.3237766355082</v>
+        <v>964.3237766355084</v>
       </c>
       <c r="C20" t="n">
-        <v>819.2452050838729</v>
+        <v>819.245205083873</v>
       </c>
       <c r="D20" t="n">
-        <v>684.6518486073327</v>
+        <v>684.6518486073328</v>
       </c>
       <c r="E20" t="n">
-        <v>523.2773779886822</v>
+        <v>523.2773779886824</v>
       </c>
       <c r="F20" t="n">
-        <v>337.4828793647254</v>
+        <v>337.4828793647255</v>
       </c>
       <c r="G20" t="n">
         <v>144.5814414036293</v>
@@ -5750,16 +5750,16 @@
         <v>34.06668404499532</v>
       </c>
       <c r="J20" t="n">
-        <v>77.5298183240343</v>
+        <v>77.52981832403439</v>
       </c>
       <c r="K20" t="n">
-        <v>264.9463826846385</v>
+        <v>264.9463826846386</v>
       </c>
       <c r="L20" t="n">
-        <v>549.4222814033732</v>
+        <v>549.4222814033733</v>
       </c>
       <c r="M20" t="n">
-        <v>881.16882522351</v>
+        <v>881.1688252235101</v>
       </c>
       <c r="N20" t="n">
         <v>1202.76619996072</v>
@@ -5786,10 +5786,10 @@
         <v>1674.972130355464</v>
       </c>
       <c r="V20" t="n">
-        <v>1568.733835729509</v>
+        <v>1568.733835729508</v>
       </c>
       <c r="W20" t="n">
-        <v>1440.276454762104</v>
+        <v>1440.276454762103</v>
       </c>
       <c r="X20" t="n">
         <v>1291.282223157714</v>
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>794.0868523511654</v>
+        <v>354.4081057642343</v>
       </c>
       <c r="C21" t="n">
-        <v>621.3337372729825</v>
+        <v>181.6549906860515</v>
       </c>
       <c r="D21" t="n">
-        <v>473.7454306319263</v>
+        <v>34.06668404499532</v>
       </c>
       <c r="E21" t="n">
-        <v>316.135901634781</v>
+        <v>34.06668404499532</v>
       </c>
       <c r="F21" t="n">
-        <v>171.1801116513979</v>
+        <v>34.06668404499532</v>
       </c>
       <c r="G21" t="n">
         <v>34.06668404499532</v>
@@ -5829,16 +5829,16 @@
         <v>34.06668404499532</v>
       </c>
       <c r="J21" t="n">
-        <v>67.73507425119428</v>
+        <v>34.06668404499532</v>
       </c>
       <c r="K21" t="n">
-        <v>251.885328968163</v>
+        <v>34.06668404499532</v>
       </c>
       <c r="L21" t="n">
-        <v>560.3476789512649</v>
+        <v>166.5940463290203</v>
       </c>
       <c r="M21" t="n">
-        <v>973.1088862271536</v>
+        <v>579.355253604909</v>
       </c>
       <c r="N21" t="n">
         <v>1000.930468661726</v>
@@ -5856,25 +5856,25 @@
         <v>1625.300372251442</v>
       </c>
       <c r="S21" t="n">
-        <v>1625.300372251442</v>
+        <v>1459.902689254294</v>
       </c>
       <c r="T21" t="n">
-        <v>1426.05770581855</v>
+        <v>1441.65106404943</v>
       </c>
       <c r="U21" t="n">
-        <v>1424.763376676083</v>
+        <v>1214.743290621283</v>
       </c>
       <c r="V21" t="n">
-        <v>1190.512133201684</v>
+        <v>980.4920471468839</v>
       </c>
       <c r="W21" t="n">
-        <v>961.1294034727258</v>
+        <v>727.9775554802172</v>
       </c>
       <c r="X21" t="n">
-        <v>961.1294034727258</v>
+        <v>521.4506568857947</v>
       </c>
       <c r="Y21" t="n">
-        <v>961.1294034727258</v>
+        <v>521.4506568857947</v>
       </c>
     </row>
     <row r="22">
@@ -5935,7 +5935,7 @@
         <v>395.2950961604394</v>
       </c>
       <c r="S22" t="n">
-        <v>395.2950961604394</v>
+        <v>197.4488593526102</v>
       </c>
       <c r="T22" t="n">
         <v>193.4398889309537</v>
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>964.3237766355081</v>
+        <v>964.3237766355087</v>
       </c>
       <c r="C23" t="n">
-        <v>819.2452050838726</v>
+        <v>819.2452050838733</v>
       </c>
       <c r="D23" t="n">
-        <v>684.6518486073322</v>
+        <v>684.6518486073332</v>
       </c>
       <c r="E23" t="n">
-        <v>523.2773779886818</v>
+        <v>523.2773779886826</v>
       </c>
       <c r="F23" t="n">
-        <v>337.482879364725</v>
+        <v>337.4828793647257</v>
       </c>
       <c r="G23" t="n">
         <v>144.5814414036293</v>
       </c>
       <c r="H23" t="n">
-        <v>34.06668404499532</v>
+        <v>34.06668404499533</v>
       </c>
       <c r="I23" t="n">
-        <v>34.06668404499532</v>
+        <v>34.06668404499533</v>
       </c>
       <c r="J23" t="n">
-        <v>77.52981832403439</v>
+        <v>77.52981832403441</v>
       </c>
       <c r="K23" t="n">
         <v>264.9463826846386</v>
@@ -6005,7 +6005,7 @@
         <v>1460.31313013439</v>
       </c>
       <c r="P23" t="n">
-        <v>1643.184683310794</v>
+        <v>1643.184683310795</v>
       </c>
       <c r="Q23" t="n">
         <v>1703.334202249766</v>
@@ -6023,7 +6023,7 @@
         <v>1674.972130355464</v>
       </c>
       <c r="V23" t="n">
-        <v>1568.733835729508</v>
+        <v>1568.733835729509</v>
       </c>
       <c r="W23" t="n">
         <v>1440.276454762104</v>
@@ -6032,7 +6032,7 @@
         <v>1291.282223157714</v>
       </c>
       <c r="Y23" t="n">
-        <v>1126.302665674469</v>
+        <v>1126.30266567447</v>
       </c>
     </row>
     <row r="24">
@@ -6042,46 +6042,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>635.9762524739009</v>
+        <v>730.1715654714073</v>
       </c>
       <c r="C24" t="n">
-        <v>463.7242082758372</v>
+        <v>730.1715654714073</v>
       </c>
       <c r="D24" t="n">
-        <v>316.135901634781</v>
+        <v>582.5832588303513</v>
       </c>
       <c r="E24" t="n">
-        <v>316.135901634781</v>
+        <v>424.973729833206</v>
       </c>
       <c r="F24" t="n">
-        <v>171.1801116513979</v>
+        <v>280.0179398498228</v>
       </c>
       <c r="G24" t="n">
-        <v>34.06668404499532</v>
+        <v>142.9045122434203</v>
       </c>
       <c r="H24" t="n">
-        <v>34.06668404499532</v>
+        <v>34.06668404499533</v>
       </c>
       <c r="I24" t="n">
-        <v>34.06668404499532</v>
+        <v>34.06668404499533</v>
       </c>
       <c r="J24" t="n">
-        <v>34.06668404499532</v>
+        <v>34.06668404499533</v>
       </c>
       <c r="K24" t="n">
-        <v>34.06668404499532</v>
+        <v>34.06668404499533</v>
       </c>
       <c r="L24" t="n">
         <v>342.5290340280973</v>
       </c>
       <c r="M24" t="n">
-        <v>696.0336263324605</v>
+        <v>755.290241303986</v>
       </c>
       <c r="N24" t="n">
-        <v>1117.608841389278</v>
+        <v>1176.865456360803</v>
       </c>
       <c r="O24" t="n">
-        <v>1451.657358283427</v>
+        <v>1510.913973254952</v>
       </c>
       <c r="P24" t="n">
         <v>1703.334202249766</v>
@@ -6093,25 +6093,25 @@
         <v>1703.334202249766</v>
       </c>
       <c r="S24" t="n">
-        <v>1703.334202249766</v>
+        <v>1537.936519252618</v>
       </c>
       <c r="T24" t="n">
-        <v>1703.334202249766</v>
+        <v>1537.936519252618</v>
       </c>
       <c r="U24" t="n">
-        <v>1702.039873107299</v>
+        <v>1311.028745824471</v>
       </c>
       <c r="V24" t="n">
-        <v>1467.7886296329</v>
+        <v>1302.390946635752</v>
       </c>
       <c r="W24" t="n">
-        <v>1215.274137966233</v>
+        <v>1049.876454969086</v>
       </c>
       <c r="X24" t="n">
-        <v>1008.747239371811</v>
+        <v>935.9000012477569</v>
       </c>
       <c r="Y24" t="n">
-        <v>803.0188035954613</v>
+        <v>730.1715654714073</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>231.9129208528245</v>
+        <v>34.06668404499533</v>
       </c>
       <c r="C25" t="n">
-        <v>231.9129208528245</v>
+        <v>34.06668404499533</v>
       </c>
       <c r="D25" t="n">
-        <v>231.9129208528245</v>
+        <v>34.06668404499533</v>
       </c>
       <c r="E25" t="n">
-        <v>231.9129208528245</v>
+        <v>34.06668404499533</v>
       </c>
       <c r="F25" t="n">
-        <v>231.9129208528245</v>
+        <v>34.06668404499533</v>
       </c>
       <c r="G25" t="n">
-        <v>231.9129208528245</v>
+        <v>34.06668404499533</v>
       </c>
       <c r="H25" t="n">
-        <v>70.76124135049454</v>
+        <v>34.06668404499533</v>
       </c>
       <c r="I25" t="n">
-        <v>70.76124135049454</v>
+        <v>34.06668404499533</v>
       </c>
       <c r="J25" t="n">
-        <v>34.06668404499532</v>
+        <v>34.06668404499533</v>
       </c>
       <c r="K25" t="n">
         <v>46.52852483112191</v>
@@ -6175,22 +6175,22 @@
         <v>395.2950961604394</v>
       </c>
       <c r="T25" t="n">
-        <v>391.2861257387829</v>
+        <v>193.4398889309537</v>
       </c>
       <c r="U25" t="n">
-        <v>327.9708585883732</v>
+        <v>130.124621780544</v>
       </c>
       <c r="V25" t="n">
-        <v>298.0930391700746</v>
+        <v>100.2468023622455</v>
       </c>
       <c r="W25" t="n">
-        <v>234.7240825593757</v>
+        <v>36.87784575154651</v>
       </c>
       <c r="X25" t="n">
-        <v>231.9129208528245</v>
+        <v>34.06668404499533</v>
       </c>
       <c r="Y25" t="n">
-        <v>231.9129208528245</v>
+        <v>34.06668404499533</v>
       </c>
     </row>
     <row r="26">
@@ -6209,13 +6209,13 @@
         <v>1079.594341836111</v>
       </c>
       <c r="E26" t="n">
-        <v>836.2092952295858</v>
+        <v>836.2092952295852</v>
       </c>
       <c r="F26" t="n">
-        <v>568.4042206177542</v>
+        <v>568.4042206177536</v>
       </c>
       <c r="G26" t="n">
-        <v>293.4922066687831</v>
+        <v>293.4922066687827</v>
       </c>
       <c r="H26" t="n">
         <v>100.9668733222743</v>
@@ -6227,10 +6227,10 @@
         <v>241.9265193626539</v>
       </c>
       <c r="K26" t="n">
-        <v>570.0882549419374</v>
+        <v>570.0882549419373</v>
       </c>
       <c r="L26" t="n">
-        <v>995.3093248793509</v>
+        <v>995.3093248793513</v>
       </c>
       <c r="M26" t="n">
         <v>1467.801039918167</v>
@@ -6251,19 +6251,19 @@
         <v>2885.910693246778</v>
       </c>
       <c r="S26" t="n">
-        <v>2833.654182261577</v>
+        <v>2833.654182261578</v>
       </c>
       <c r="T26" t="n">
         <v>2754.361303381543</v>
       </c>
       <c r="U26" t="n">
-        <v>2643.988655499366</v>
+        <v>2643.988655499365</v>
       </c>
       <c r="V26" t="n">
-        <v>2455.739784885536</v>
+        <v>2455.739784885535</v>
       </c>
       <c r="W26" t="n">
-        <v>2245.271827930256</v>
+        <v>2245.271827930255</v>
       </c>
       <c r="X26" t="n">
         <v>2014.267020337991</v>
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>911.4455112635735</v>
+        <v>624.2397746679625</v>
       </c>
       <c r="C27" t="n">
-        <v>738.6923961853906</v>
+        <v>451.4866595897797</v>
       </c>
       <c r="D27" t="n">
-        <v>591.1040895443346</v>
+        <v>303.8983529487235</v>
       </c>
       <c r="E27" t="n">
-        <v>433.4945605471893</v>
+        <v>146.2888239515782</v>
       </c>
       <c r="F27" t="n">
-        <v>288.5387705638061</v>
+        <v>144.9359022660007</v>
       </c>
       <c r="G27" t="n">
-        <v>166.5560420633606</v>
+        <v>57.71821386493556</v>
       </c>
       <c r="H27" t="n">
         <v>57.71821386493556</v>
@@ -6330,25 +6330,25 @@
         <v>2138.248649861743</v>
       </c>
       <c r="S27" t="n">
-        <v>1972.850966864595</v>
+        <v>2116.4538351624</v>
       </c>
       <c r="T27" t="n">
         <v>1917.211168729508</v>
       </c>
       <c r="U27" t="n">
-        <v>1833.906263599167</v>
+        <v>1690.303395301361</v>
       </c>
       <c r="V27" t="n">
-        <v>1599.655020124767</v>
+        <v>1456.052151826962</v>
       </c>
       <c r="W27" t="n">
-        <v>1347.140528458101</v>
+        <v>1203.537660160295</v>
       </c>
       <c r="X27" t="n">
-        <v>1140.613629863678</v>
+        <v>997.0107615658725</v>
       </c>
       <c r="Y27" t="n">
-        <v>934.8851940873284</v>
+        <v>791.2823257895229</v>
       </c>
     </row>
     <row r="28">
@@ -6382,22 +6382,22 @@
         <v>57.71821386493556</v>
       </c>
       <c r="J28" t="n">
-        <v>57.71821386493556</v>
+        <v>68.80584631881644</v>
       </c>
       <c r="K28" t="n">
-        <v>70.18005465106215</v>
+        <v>222.0128583236223</v>
       </c>
       <c r="L28" t="n">
-        <v>153.0181679860054</v>
+        <v>293.7633392046847</v>
       </c>
       <c r="M28" t="n">
-        <v>239.2618895376972</v>
+        <v>520.7522319750558</v>
       </c>
       <c r="N28" t="n">
-        <v>469.3413612686055</v>
+        <v>750.8317037059641</v>
       </c>
       <c r="O28" t="n">
-        <v>677.2646216304335</v>
+        <v>818.0097928491127</v>
       </c>
       <c r="P28" t="n">
         <v>852.2697720902981</v>
@@ -6437,49 +6437,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1523.287421840035</v>
+        <v>1523.287421840036</v>
       </c>
       <c r="C29" t="n">
-        <v>1296.198274300525</v>
+        <v>1296.198274300526</v>
       </c>
       <c r="D29" t="n">
-        <v>1079.59434183611</v>
+        <v>1079.594341836111</v>
       </c>
       <c r="E29" t="n">
-        <v>836.2092952295851</v>
+        <v>836.2092952295859</v>
       </c>
       <c r="F29" t="n">
-        <v>568.4042206177535</v>
+        <v>568.4042206177542</v>
       </c>
       <c r="G29" t="n">
-        <v>293.4922066687826</v>
+        <v>293.4922066687832</v>
       </c>
       <c r="H29" t="n">
         <v>100.9668733222743</v>
       </c>
       <c r="I29" t="n">
-        <v>57.71821386493556</v>
+        <v>57.71821386493557</v>
       </c>
       <c r="J29" t="n">
         <v>241.9265193626539</v>
       </c>
       <c r="K29" t="n">
-        <v>570.0882549419368</v>
+        <v>570.0882549419374</v>
       </c>
       <c r="L29" t="n">
-        <v>995.3093248793508</v>
+        <v>995.3093248793516</v>
       </c>
       <c r="M29" t="n">
-        <v>1467.801039918167</v>
+        <v>1467.801039918168</v>
       </c>
       <c r="N29" t="n">
-        <v>1930.143585874056</v>
+        <v>1930.143585874057</v>
       </c>
       <c r="O29" t="n">
         <v>2328.435687266406</v>
       </c>
       <c r="P29" t="n">
-        <v>2652.052411661489</v>
+        <v>2652.05241166149</v>
       </c>
       <c r="Q29" t="n">
         <v>2852.94710181914</v>
@@ -6506,7 +6506,7 @@
         <v>2014.267020337992</v>
       </c>
       <c r="Y29" t="n">
-        <v>1767.276886866871</v>
+        <v>1767.276886866872</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>895.3460839418951</v>
+        <v>767.8426429657679</v>
       </c>
       <c r="C30" t="n">
-        <v>722.5929688637123</v>
+        <v>595.0895278875851</v>
       </c>
       <c r="D30" t="n">
-        <v>575.0046622226562</v>
+        <v>447.5012212465289</v>
       </c>
       <c r="E30" t="n">
-        <v>417.3951332255109</v>
+        <v>289.8916922493836</v>
       </c>
       <c r="F30" t="n">
-        <v>272.4393432421277</v>
+        <v>144.9359022660005</v>
       </c>
       <c r="G30" t="n">
-        <v>135.3259156357252</v>
+        <v>144.9359022660005</v>
       </c>
       <c r="H30" t="n">
-        <v>135.3259156357252</v>
+        <v>57.71821386493557</v>
       </c>
       <c r="I30" t="n">
-        <v>57.71821386493556</v>
+        <v>57.71821386493557</v>
       </c>
       <c r="J30" t="n">
-        <v>91.38660407113453</v>
+        <v>91.38660407113454</v>
       </c>
       <c r="K30" t="n">
         <v>275.5368587881032</v>
       </c>
       <c r="L30" t="n">
-        <v>583.9992087712052</v>
+        <v>583.9992087712053</v>
       </c>
       <c r="M30" t="n">
         <v>996.7604160470939</v>
@@ -6564,28 +6564,28 @@
         <v>2138.248649861743</v>
       </c>
       <c r="R30" t="n">
-        <v>2060.214819863419</v>
+        <v>2138.248649861743</v>
       </c>
       <c r="S30" t="n">
-        <v>1894.81713686627</v>
+        <v>2116.4538351624</v>
       </c>
       <c r="T30" t="n">
-        <v>1757.508873110024</v>
+        <v>2060.814037027313</v>
       </c>
       <c r="U30" t="n">
-        <v>1530.601099681877</v>
+        <v>1833.906263599166</v>
       </c>
       <c r="V30" t="n">
-        <v>1296.349856207477</v>
+        <v>1599.655020124767</v>
       </c>
       <c r="W30" t="n">
-        <v>1043.835364540811</v>
+        <v>1347.1405284581</v>
       </c>
       <c r="X30" t="n">
-        <v>980.9113342441938</v>
+        <v>1140.613629863678</v>
       </c>
       <c r="Y30" t="n">
-        <v>918.7857667656499</v>
+        <v>934.8851940873284</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>146.7871115032127</v>
+        <v>146.7871115032129</v>
       </c>
       <c r="C31" t="n">
-        <v>121.3631586583897</v>
+        <v>121.3631586583899</v>
       </c>
       <c r="D31" t="n">
-        <v>114.455353709206</v>
+        <v>114.4553537092062</v>
       </c>
       <c r="E31" t="n">
-        <v>109.5990056704468</v>
+        <v>109.599005670447</v>
       </c>
       <c r="F31" t="n">
-        <v>105.5664988068337</v>
+        <v>105.5664988068338</v>
       </c>
       <c r="G31" t="n">
-        <v>79.8218139137648</v>
+        <v>79.82181391376487</v>
       </c>
       <c r="H31" t="n">
-        <v>62.27300270924047</v>
+        <v>62.27300270924051</v>
       </c>
       <c r="I31" t="n">
-        <v>57.71821386493556</v>
+        <v>57.71821386493557</v>
       </c>
       <c r="J31" t="n">
-        <v>57.71821386493556</v>
+        <v>126.9970690061732</v>
       </c>
       <c r="K31" t="n">
-        <v>162.5734143129534</v>
+        <v>139.4589097922998</v>
       </c>
       <c r="L31" t="n">
-        <v>234.3238951940159</v>
+        <v>351.9545618920415</v>
       </c>
       <c r="M31" t="n">
-        <v>461.312787964387</v>
+        <v>438.1982834437333</v>
       </c>
       <c r="N31" t="n">
-        <v>691.3922596952953</v>
+        <v>668.2777551746416</v>
       </c>
       <c r="O31" t="n">
-        <v>899.3155200571232</v>
+        <v>818.0097928491127</v>
       </c>
       <c r="P31" t="n">
-        <v>933.5754992983086</v>
+        <v>852.2697720902981</v>
       </c>
       <c r="Q31" t="n">
-        <v>933.5754992983086</v>
+        <v>933.5754992983091</v>
       </c>
       <c r="R31" t="n">
-        <v>912.7322014197462</v>
+        <v>912.7322014197466</v>
       </c>
       <c r="S31" t="n">
-        <v>835.8774052641378</v>
+        <v>835.8774052641381</v>
       </c>
       <c r="T31" t="n">
-        <v>749.8578588546065</v>
+        <v>749.8578588546069</v>
       </c>
       <c r="U31" t="n">
-        <v>604.532015716322</v>
+        <v>604.5320157163223</v>
       </c>
       <c r="V31" t="n">
-        <v>492.6436203101487</v>
+        <v>492.643620310149</v>
       </c>
       <c r="W31" t="n">
-        <v>347.2640877115749</v>
+        <v>347.2640877115753</v>
       </c>
       <c r="X31" t="n">
-        <v>262.442350017149</v>
+        <v>262.4423500171492</v>
       </c>
       <c r="Y31" t="n">
-        <v>185.0869618828655</v>
+        <v>185.0869618828657</v>
       </c>
     </row>
     <row r="32">
@@ -6695,28 +6695,28 @@
         <v>98.4772345875831</v>
       </c>
       <c r="I32" t="n">
-        <v>57.13470478649229</v>
+        <v>57.13470478649231</v>
       </c>
       <c r="J32" t="n">
         <v>243.2112079602992</v>
       </c>
       <c r="K32" t="n">
-        <v>573.2411412156714</v>
+        <v>527.8354172871536</v>
       </c>
       <c r="L32" t="n">
-        <v>1000.330408829174</v>
+        <v>954.9246849006563</v>
       </c>
       <c r="M32" t="n">
-        <v>1474.690321544079</v>
+        <v>1429.284597615561</v>
       </c>
       <c r="N32" t="n">
-        <v>1938.901065176057</v>
+        <v>1893.495341247539</v>
       </c>
       <c r="O32" t="n">
-        <v>2339.061364244495</v>
+        <v>2293.655640315977</v>
       </c>
       <c r="P32" t="n">
-        <v>2664.546286315667</v>
+        <v>2619.140562387149</v>
       </c>
       <c r="Q32" t="n">
         <v>2821.903450220888</v>
@@ -6734,16 +6734,16 @@
         <v>2620.531590545947</v>
       </c>
       <c r="V32" t="n">
-        <v>2434.188849588364</v>
+        <v>2434.188849588365</v>
       </c>
       <c r="W32" t="n">
-        <v>2225.627022289332</v>
+        <v>2225.627022289333</v>
       </c>
       <c r="X32" t="n">
         <v>1996.528344353316</v>
       </c>
       <c r="Y32" t="n">
-        <v>1751.444340538444</v>
+        <v>1751.444340538445</v>
       </c>
     </row>
     <row r="33">
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>771.0713931998207</v>
+        <v>625.5623952457676</v>
       </c>
       <c r="C33" t="n">
-        <v>598.3182781216378</v>
+        <v>452.8092801675847</v>
       </c>
       <c r="D33" t="n">
-        <v>450.7299714805817</v>
+        <v>305.2209735265286</v>
       </c>
       <c r="E33" t="n">
-        <v>293.1204424834364</v>
+        <v>147.6114445293833</v>
       </c>
       <c r="F33" t="n">
-        <v>148.1646525000532</v>
+        <v>147.6114445293833</v>
       </c>
       <c r="G33" t="n">
-        <v>148.1646525000532</v>
+        <v>147.6114445293833</v>
       </c>
       <c r="H33" t="n">
-        <v>57.13470478649229</v>
+        <v>57.13470478649231</v>
       </c>
       <c r="I33" t="n">
-        <v>57.13470478649229</v>
+        <v>57.13470478649231</v>
       </c>
       <c r="J33" t="n">
-        <v>90.80309499269126</v>
+        <v>90.80309499269127</v>
       </c>
       <c r="K33" t="n">
         <v>274.95334970966</v>
@@ -6804,25 +6804,25 @@
         <v>2137.6651407833</v>
       </c>
       <c r="S33" t="n">
-        <v>1972.267457786151</v>
+        <v>2117.776455740205</v>
       </c>
       <c r="T33" t="n">
         <v>1918.533789307313</v>
       </c>
       <c r="U33" t="n">
-        <v>1837.135013833219</v>
+        <v>1691.626015879166</v>
       </c>
       <c r="V33" t="n">
-        <v>1602.88377035882</v>
+        <v>1457.374772404767</v>
       </c>
       <c r="W33" t="n">
-        <v>1350.369278692153</v>
+        <v>1204.8602807381</v>
       </c>
       <c r="X33" t="n">
-        <v>1143.842380097731</v>
+        <v>998.3333821436776</v>
       </c>
       <c r="Y33" t="n">
-        <v>938.1139443213812</v>
+        <v>792.604946367328</v>
       </c>
     </row>
     <row r="34">
@@ -6844,37 +6844,37 @@
         <v>101.3909779670118</v>
       </c>
       <c r="F34" t="n">
-        <v>99.26460075964667</v>
+        <v>99.26460075964668</v>
       </c>
       <c r="G34" t="n">
-        <v>75.42604552282566</v>
+        <v>75.42604552282567</v>
       </c>
       <c r="H34" t="n">
-        <v>59.78336397454926</v>
+        <v>59.78336397454927</v>
       </c>
       <c r="I34" t="n">
-        <v>57.13470478649229</v>
+        <v>57.13470478649231</v>
       </c>
       <c r="J34" t="n">
-        <v>57.13470478649229</v>
+        <v>128.2817576038186</v>
       </c>
       <c r="K34" t="n">
-        <v>125.8872377062773</v>
+        <v>283.3569672847131</v>
       </c>
       <c r="L34" t="n">
-        <v>340.2510874821076</v>
+        <v>355.1074481657755</v>
       </c>
       <c r="M34" t="n">
-        <v>569.1081779285673</v>
+        <v>441.3511697174673</v>
       </c>
       <c r="N34" t="n">
-        <v>658.4424784407963</v>
+        <v>673.2988391244642</v>
       </c>
       <c r="O34" t="n">
-        <v>725.620567583945</v>
+        <v>785.0600115946132</v>
       </c>
       <c r="P34" t="n">
-        <v>902.4939157198983</v>
+        <v>819.3199908357986</v>
       </c>
       <c r="Q34" t="n">
         <v>902.4939157198983</v>
@@ -6932,31 +6932,31 @@
         <v>34.73224252038475</v>
       </c>
       <c r="I35" t="n">
-        <v>40.84626364074041</v>
+        <v>34.73224252038475</v>
       </c>
       <c r="J35" t="n">
-        <v>84.30939791977949</v>
+        <v>78.19537679942383</v>
       </c>
       <c r="K35" t="n">
-        <v>271.7259622803837</v>
+        <v>265.6119411600281</v>
       </c>
       <c r="L35" t="n">
-        <v>556.2018609991184</v>
+        <v>550.0878398787627</v>
       </c>
       <c r="M35" t="n">
-        <v>887.9484048192552</v>
+        <v>881.8343836988995</v>
       </c>
       <c r="N35" t="n">
-        <v>1209.545779556466</v>
+        <v>1203.43175843611</v>
       </c>
       <c r="O35" t="n">
-        <v>1467.092709730135</v>
+        <v>1460.97868860978</v>
       </c>
       <c r="P35" t="n">
-        <v>1649.964262906539</v>
+        <v>1643.850241786184</v>
       </c>
       <c r="Q35" t="n">
-        <v>1710.113781845511</v>
+        <v>1703.999760725155</v>
       </c>
       <c r="R35" t="n">
         <v>1710.113781845511</v>
@@ -6990,46 +6990,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>657.6389832201521</v>
+        <v>676.0001051575678</v>
       </c>
       <c r="C36" t="n">
-        <v>484.8858681419693</v>
+        <v>503.246990079385</v>
       </c>
       <c r="D36" t="n">
-        <v>337.2975615009132</v>
+        <v>503.246990079385</v>
       </c>
       <c r="E36" t="n">
-        <v>179.6880325037679</v>
+        <v>503.246990079385</v>
       </c>
       <c r="F36" t="n">
-        <v>34.73224252038475</v>
+        <v>358.2912000960019</v>
       </c>
       <c r="G36" t="n">
-        <v>34.73224252038475</v>
+        <v>221.1777724895994</v>
       </c>
       <c r="H36" t="n">
-        <v>34.73224252038475</v>
+        <v>112.3399442911744</v>
       </c>
       <c r="I36" t="n">
         <v>34.73224252038475</v>
       </c>
       <c r="J36" t="n">
-        <v>34.73224252038475</v>
+        <v>68.40063272658372</v>
       </c>
       <c r="K36" t="n">
-        <v>34.73224252038475</v>
+        <v>252.5508874435524</v>
       </c>
       <c r="L36" t="n">
-        <v>343.1945925034868</v>
+        <v>308.3140566930993</v>
       </c>
       <c r="M36" t="n">
-        <v>755.9557997793754</v>
+        <v>721.075263968988</v>
       </c>
       <c r="N36" t="n">
-        <v>1185.767300969137</v>
+        <v>1150.886765158749</v>
       </c>
       <c r="O36" t="n">
-        <v>1519.815817863286</v>
+        <v>1484.935282052899</v>
       </c>
       <c r="P36" t="n">
         <v>1736.612126019238</v>
@@ -7047,19 +7047,19 @@
         <v>1736.612126019238</v>
       </c>
       <c r="U36" t="n">
-        <v>1556.66005273199</v>
+        <v>1536.335290014617</v>
       </c>
       <c r="V36" t="n">
-        <v>1322.408809257591</v>
+        <v>1302.084046540218</v>
       </c>
       <c r="W36" t="n">
-        <v>1069.894317590924</v>
+        <v>1049.569554873551</v>
       </c>
       <c r="X36" t="n">
-        <v>863.3674189965017</v>
+        <v>843.0426562791282</v>
       </c>
       <c r="Y36" t="n">
-        <v>657.6389832201521</v>
+        <v>843.0426562791282</v>
       </c>
     </row>
     <row r="37">
@@ -7123,19 +7123,19 @@
         <v>395.9606546358287</v>
       </c>
       <c r="T37" t="n">
-        <v>204.9762358377041</v>
+        <v>389.2339871063321</v>
       </c>
       <c r="U37" t="n">
-        <v>138.9432715794541</v>
+        <v>323.2010228480821</v>
       </c>
       <c r="V37" t="n">
-        <v>106.3477550533153</v>
+        <v>290.6055063219433</v>
       </c>
       <c r="W37" t="n">
-        <v>40.26110133477616</v>
+        <v>224.5188526034042</v>
       </c>
       <c r="X37" t="n">
-        <v>34.73224252038475</v>
+        <v>218.9899937890127</v>
       </c>
       <c r="Y37" t="n">
         <v>34.73224252038475</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>981.2955177579395</v>
+        <v>981.295517757939</v>
       </c>
       <c r="C38" t="n">
-        <v>833.4992490984639</v>
+        <v>833.4992490984632</v>
       </c>
       <c r="D38" t="n">
-        <v>696.1881955140834</v>
+        <v>696.1881955140827</v>
       </c>
       <c r="E38" t="n">
-        <v>532.0960277875928</v>
+        <v>532.0960277875921</v>
       </c>
       <c r="F38" t="n">
-        <v>343.5838320557957</v>
+        <v>343.583832055795</v>
       </c>
       <c r="G38" t="n">
         <v>147.964696986859</v>
@@ -7196,7 +7196,7 @@
         <v>1703.999760725155</v>
       </c>
       <c r="R38" t="n">
-        <v>1736.612126019239</v>
+        <v>1710.113781845512</v>
       </c>
       <c r="S38" t="n">
         <v>1736.612126019239</v>
@@ -7208,16 +7208,16 @@
         <v>1705.532357017096</v>
       </c>
       <c r="V38" t="n">
-        <v>1596.576365283301</v>
+        <v>1596.5763652833</v>
       </c>
       <c r="W38" t="n">
         <v>1465.401287208055</v>
       </c>
       <c r="X38" t="n">
-        <v>1313.689358495826</v>
+        <v>1313.689358495825</v>
       </c>
       <c r="Y38" t="n">
-        <v>1145.992103904741</v>
+        <v>1145.99210390474</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7227,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>724.0345433162256</v>
+        <v>443.6407319576933</v>
       </c>
       <c r="C39" t="n">
-        <v>551.2814282380427</v>
+        <v>270.8876168795105</v>
       </c>
       <c r="D39" t="n">
-        <v>403.6931215969866</v>
+        <v>270.8876168795105</v>
       </c>
       <c r="E39" t="n">
-        <v>246.0835925998413</v>
+        <v>270.8876168795105</v>
       </c>
       <c r="F39" t="n">
-        <v>101.1278026164582</v>
+        <v>270.8876168795105</v>
       </c>
       <c r="G39" t="n">
-        <v>101.1278026164582</v>
+        <v>221.1777724895994</v>
       </c>
       <c r="H39" t="n">
-        <v>34.73224252038477</v>
+        <v>112.3399442911744</v>
       </c>
       <c r="I39" t="n">
         <v>34.73224252038477</v>
       </c>
       <c r="J39" t="n">
-        <v>68.40063272658374</v>
+        <v>34.73224252038477</v>
       </c>
       <c r="K39" t="n">
-        <v>252.5508874435524</v>
+        <v>218.8824972373534</v>
       </c>
       <c r="L39" t="n">
-        <v>561.0132374266544</v>
+        <v>527.3448472204554</v>
       </c>
       <c r="M39" t="n">
-        <v>938.4454081355865</v>
+        <v>940.1060544963441</v>
       </c>
       <c r="N39" t="n">
-        <v>1368.256909325348</v>
+        <v>1369.917555686106</v>
       </c>
       <c r="O39" t="n">
-        <v>1368.256909325348</v>
+        <v>1703.966072580255</v>
       </c>
       <c r="P39" t="n">
-        <v>1619.933753291687</v>
+        <v>1736.612126019239</v>
       </c>
       <c r="Q39" t="n">
         <v>1736.612126019239</v>
@@ -7278,25 +7278,25 @@
         <v>1736.612126019239</v>
       </c>
       <c r="S39" t="n">
-        <v>1571.21444302209</v>
+        <v>1736.612126019239</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.21444302209</v>
+        <v>1736.612126019239</v>
       </c>
       <c r="U39" t="n">
-        <v>1567.202416771784</v>
+        <v>1509.704352591092</v>
       </c>
       <c r="V39" t="n">
-        <v>1332.951173297384</v>
+        <v>1275.453109116693</v>
       </c>
       <c r="W39" t="n">
-        <v>1303.332428808558</v>
+        <v>1022.938617450026</v>
       </c>
       <c r="X39" t="n">
-        <v>1096.805530214136</v>
+        <v>816.4117188556033</v>
       </c>
       <c r="Y39" t="n">
-        <v>891.0770944377861</v>
+        <v>610.6832830792538</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.73224252038477</v>
+        <v>195.8839220227147</v>
       </c>
       <c r="C40" t="n">
-        <v>34.73224252038477</v>
+        <v>195.8839220227147</v>
       </c>
       <c r="D40" t="n">
-        <v>34.73224252038477</v>
+        <v>195.8839220227147</v>
       </c>
       <c r="E40" t="n">
-        <v>34.73224252038477</v>
+        <v>195.8839220227147</v>
       </c>
       <c r="F40" t="n">
-        <v>34.73224252038477</v>
+        <v>195.8839220227147</v>
       </c>
       <c r="G40" t="n">
-        <v>34.73224252038477</v>
+        <v>195.8839220227147</v>
       </c>
       <c r="H40" t="n">
         <v>34.73224252038477</v>
@@ -7372,10 +7372,10 @@
         <v>224.5188526034042</v>
       </c>
       <c r="X40" t="n">
-        <v>218.9899937890127</v>
+        <v>195.8839220227147</v>
       </c>
       <c r="Y40" t="n">
-        <v>34.73224252038477</v>
+        <v>195.8839220227147</v>
       </c>
     </row>
     <row r="41">
@@ -7385,58 +7385,58 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1150.686639058225</v>
+        <v>1150.686639058224</v>
       </c>
       <c r="C41" t="n">
-        <v>975.854002503915</v>
+        <v>975.8540025039148</v>
       </c>
       <c r="D41" t="n">
-        <v>811.5065810247007</v>
+        <v>811.5065810247005</v>
       </c>
       <c r="E41" t="n">
-        <v>620.3780454033763</v>
+        <v>620.3780454033761</v>
       </c>
       <c r="F41" t="n">
-        <v>404.8294817767454</v>
+        <v>404.8294817767453</v>
       </c>
       <c r="G41" t="n">
         <v>182.1739788129753</v>
       </c>
       <c r="H41" t="n">
-        <v>41.90515645166722</v>
+        <v>41.9051564516672</v>
       </c>
       <c r="I41" t="n">
-        <v>50.73375173412477</v>
+        <v>50.73375173412472</v>
       </c>
       <c r="J41" t="n">
-        <v>193.3114631781211</v>
+        <v>94.19688601316379</v>
       </c>
       <c r="K41" t="n">
-        <v>380.7280275387254</v>
+        <v>281.613450373768</v>
       </c>
       <c r="L41" t="n">
-        <v>665.2039262574601</v>
+        <v>566.0893490925027</v>
       </c>
       <c r="M41" t="n">
-        <v>996.9504700775969</v>
+        <v>897.8358929126396</v>
       </c>
       <c r="N41" t="n">
-        <v>1318.547844814807</v>
+        <v>1411.395045285125</v>
       </c>
       <c r="O41" t="n">
-        <v>1576.094774988477</v>
+        <v>1668.941975458794</v>
       </c>
       <c r="P41" t="n">
-        <v>1950.928105800156</v>
+        <v>1950.928105800155</v>
       </c>
       <c r="Q41" t="n">
         <v>2011.077624739127</v>
       </c>
       <c r="R41" t="n">
-        <v>2095.257822583361</v>
+        <v>2095.25782258336</v>
       </c>
       <c r="S41" t="n">
-        <v>2095.257822583361</v>
+        <v>2095.25782258336</v>
       </c>
       <c r="T41" t="n">
         <v>2068.221454688527</v>
@@ -7454,7 +7454,7 @@
         <v>1537.153215585778</v>
       </c>
       <c r="Y41" t="n">
-        <v>1342.41959309986</v>
+        <v>1342.419593099859</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>742.4195989222244</v>
+        <v>988.3708547270519</v>
       </c>
       <c r="C42" t="n">
-        <v>569.6664838440415</v>
+        <v>815.617739648869</v>
       </c>
       <c r="D42" t="n">
-        <v>422.0781772029853</v>
+        <v>668.0294330078128</v>
       </c>
       <c r="E42" t="n">
-        <v>264.46864820584</v>
+        <v>510.4199040106676</v>
       </c>
       <c r="F42" t="n">
-        <v>119.5128582224569</v>
+        <v>365.4641140272844</v>
       </c>
       <c r="G42" t="n">
-        <v>119.5128582224569</v>
+        <v>228.3506864208819</v>
       </c>
       <c r="H42" t="n">
         <v>119.5128582224569</v>
       </c>
       <c r="I42" t="n">
-        <v>41.90515645166722</v>
+        <v>41.9051564516672</v>
       </c>
       <c r="J42" t="n">
-        <v>75.5735466578662</v>
+        <v>75.57354665786616</v>
       </c>
       <c r="K42" t="n">
-        <v>259.7238013748349</v>
+        <v>259.7238013748348</v>
       </c>
       <c r="L42" t="n">
-        <v>568.186151357937</v>
+        <v>568.1861513579368</v>
       </c>
       <c r="M42" t="n">
-        <v>980.9473586338257</v>
+        <v>980.9473586338254</v>
       </c>
       <c r="N42" t="n">
-        <v>1392.854088995321</v>
+        <v>1420.031858860434</v>
       </c>
       <c r="O42" t="n">
-        <v>1726.90260588947</v>
+        <v>1754.080375754584</v>
       </c>
       <c r="P42" t="n">
-        <v>1978.579449855809</v>
+        <v>2005.757219720922</v>
       </c>
       <c r="Q42" t="n">
-        <v>2095.257822583361</v>
+        <v>2095.25782258336</v>
       </c>
       <c r="R42" t="n">
-        <v>2095.257822583361</v>
+        <v>2095.25782258336</v>
       </c>
       <c r="S42" t="n">
-        <v>2095.257822583361</v>
+        <v>2095.25782258336</v>
       </c>
       <c r="T42" t="n">
-        <v>2035.39099298377</v>
+        <v>2085.482869505591</v>
       </c>
       <c r="U42" t="n">
-        <v>1808.483219555623</v>
+        <v>1858.575096077444</v>
       </c>
       <c r="V42" t="n">
-        <v>1574.231976081224</v>
+        <v>1624.323852603045</v>
       </c>
       <c r="W42" t="n">
-        <v>1321.717484414557</v>
+        <v>1371.809360936378</v>
       </c>
       <c r="X42" t="n">
-        <v>1115.190585820134</v>
+        <v>1165.282462341956</v>
       </c>
       <c r="Y42" t="n">
-        <v>909.4621500437848</v>
+        <v>1155.413405848612</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.90515645166722</v>
+        <v>42.52640697669896</v>
       </c>
       <c r="C43" t="n">
-        <v>41.90515645166722</v>
+        <v>42.52640697669896</v>
       </c>
       <c r="D43" t="n">
-        <v>41.90515645166722</v>
+        <v>42.52640697669896</v>
       </c>
       <c r="E43" t="n">
-        <v>41.90515645166722</v>
+        <v>42.52640697669896</v>
       </c>
       <c r="F43" t="n">
-        <v>41.90515645166722</v>
+        <v>42.52640697669896</v>
       </c>
       <c r="G43" t="n">
-        <v>41.90515645166722</v>
+        <v>42.52640697669896</v>
       </c>
       <c r="H43" t="n">
-        <v>41.90515645166722</v>
+        <v>42.52640697669896</v>
       </c>
       <c r="I43" t="n">
-        <v>42.52640697669859</v>
+        <v>42.52640697669896</v>
       </c>
       <c r="J43" t="n">
-        <v>42.52640697669859</v>
+        <v>42.52640697669896</v>
       </c>
       <c r="K43" t="n">
-        <v>54.9882477628252</v>
+        <v>54.98824776282555</v>
       </c>
       <c r="L43" t="n">
-        <v>126.7387286438877</v>
+        <v>126.738728643888</v>
       </c>
       <c r="M43" t="n">
-        <v>212.9824501955795</v>
+        <v>212.9824501955798</v>
       </c>
       <c r="N43" t="n">
-        <v>302.3167507078086</v>
+        <v>302.3167507078088</v>
       </c>
       <c r="O43" t="n">
-        <v>369.4948398509573</v>
+        <v>369.4948398509575</v>
       </c>
       <c r="P43" t="n">
-        <v>403.7548190921428</v>
+        <v>403.754819092143</v>
       </c>
       <c r="Q43" t="n">
-        <v>403.7548190921428</v>
+        <v>403.754819092143</v>
       </c>
       <c r="R43" t="n">
-        <v>403.7548190921428</v>
+        <v>403.754819092143</v>
       </c>
       <c r="S43" t="n">
-        <v>379.1565339217351</v>
+        <v>379.1565339217353</v>
       </c>
       <c r="T43" t="n">
-        <v>345.3934984974046</v>
+        <v>345.3934984974047</v>
       </c>
       <c r="U43" t="n">
-        <v>252.3241663443208</v>
+        <v>252.3241663443209</v>
       </c>
       <c r="V43" t="n">
-        <v>192.6922819233482</v>
+        <v>192.6922819233483</v>
       </c>
       <c r="W43" t="n">
-        <v>99.56926030997522</v>
+        <v>99.56926030997526</v>
       </c>
       <c r="X43" t="n">
-        <v>67.00403360074999</v>
+        <v>67.00403360075001</v>
       </c>
       <c r="Y43" t="n">
-        <v>41.90515645166722</v>
+        <v>41.9051564516672</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>1150.686639058225</v>
       </c>
       <c r="C44" t="n">
-        <v>975.8540025039155</v>
+        <v>975.8540025039157</v>
       </c>
       <c r="D44" t="n">
         <v>811.5065810247013</v>
@@ -7640,40 +7640,40 @@
         <v>182.1739788129753</v>
       </c>
       <c r="H44" t="n">
-        <v>41.90515645166722</v>
+        <v>41.90515645166721</v>
       </c>
       <c r="I44" t="n">
-        <v>50.73375173412474</v>
+        <v>50.73375173412472</v>
       </c>
       <c r="J44" t="n">
-        <v>286.1586636484383</v>
+        <v>94.19688601316381</v>
       </c>
       <c r="K44" t="n">
-        <v>473.5752280090427</v>
+        <v>281.613450373768</v>
       </c>
       <c r="L44" t="n">
-        <v>758.0511267277775</v>
+        <v>566.0893490925027</v>
       </c>
       <c r="M44" t="n">
-        <v>1089.797670547915</v>
+        <v>897.8358929126396</v>
       </c>
       <c r="N44" t="n">
-        <v>1411.395045285125</v>
+        <v>1219.43326764985</v>
       </c>
       <c r="O44" t="n">
-        <v>1668.941975458795</v>
+        <v>1668.941975458794</v>
       </c>
       <c r="P44" t="n">
-        <v>1950.928105800156</v>
+        <v>1851.813528635198</v>
       </c>
       <c r="Q44" t="n">
         <v>2011.077624739127</v>
       </c>
       <c r="R44" t="n">
-        <v>2095.257822583361</v>
+        <v>2095.25782258336</v>
       </c>
       <c r="S44" t="n">
-        <v>2095.257822583361</v>
+        <v>2095.25782258336</v>
       </c>
       <c r="T44" t="n">
         <v>2068.221454688527</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>555.4716283764573</v>
+        <v>664.8118971514346</v>
       </c>
       <c r="C45" t="n">
-        <v>382.7185132982744</v>
+        <v>492.0587820732518</v>
       </c>
       <c r="D45" t="n">
-        <v>235.1302066572183</v>
+        <v>344.4704754321957</v>
       </c>
       <c r="E45" t="n">
-        <v>77.52067766007301</v>
+        <v>186.8609464350504</v>
       </c>
       <c r="F45" t="n">
-        <v>41.90515645166722</v>
+        <v>41.90515645166721</v>
       </c>
       <c r="G45" t="n">
-        <v>41.90515645166722</v>
+        <v>41.90515645166721</v>
       </c>
       <c r="H45" t="n">
-        <v>41.90515645166722</v>
+        <v>41.90515645166721</v>
       </c>
       <c r="I45" t="n">
-        <v>41.90515645166722</v>
+        <v>41.90515645166721</v>
       </c>
       <c r="J45" t="n">
-        <v>48.39577679275212</v>
+        <v>75.57354665786617</v>
       </c>
       <c r="K45" t="n">
-        <v>232.5460315097209</v>
+        <v>259.7238013748349</v>
       </c>
       <c r="L45" t="n">
-        <v>541.008381492823</v>
+        <v>568.1861513579369</v>
       </c>
       <c r="M45" t="n">
-        <v>953.7695887687119</v>
+        <v>980.9473586338256</v>
       </c>
       <c r="N45" t="n">
-        <v>1392.854088995321</v>
+        <v>1420.031858860434</v>
       </c>
       <c r="O45" t="n">
-        <v>1726.90260588947</v>
+        <v>1754.080375754584</v>
       </c>
       <c r="P45" t="n">
-        <v>1978.579449855809</v>
+        <v>2005.757219720922</v>
       </c>
       <c r="Q45" t="n">
-        <v>2095.257822583361</v>
+        <v>2095.25782258336</v>
       </c>
       <c r="R45" t="n">
         <v>2017.223992585037</v>
       </c>
       <c r="S45" t="n">
-        <v>1851.826309587889</v>
+        <v>1851.826309587888</v>
       </c>
       <c r="T45" t="n">
-        <v>1848.443022438003</v>
+        <v>1652.583643154996</v>
       </c>
       <c r="U45" t="n">
-        <v>1621.535249009856</v>
+        <v>1535.016138501827</v>
       </c>
       <c r="V45" t="n">
-        <v>1387.284005535457</v>
+        <v>1496.624274310434</v>
       </c>
       <c r="W45" t="n">
-        <v>1134.76951386879</v>
+        <v>1244.109782643767</v>
       </c>
       <c r="X45" t="n">
-        <v>928.2426152743673</v>
+        <v>1037.582884049345</v>
       </c>
       <c r="Y45" t="n">
-        <v>722.5141794980177</v>
+        <v>831.854448272995</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>42.52640697669882</v>
+        <v>41.90515645166721</v>
       </c>
       <c r="C46" t="n">
-        <v>42.52640697669882</v>
+        <v>41.90515645166721</v>
       </c>
       <c r="D46" t="n">
-        <v>42.52640697669882</v>
+        <v>42.52640697669896</v>
       </c>
       <c r="E46" t="n">
-        <v>42.52640697669882</v>
+        <v>42.52640697669896</v>
       </c>
       <c r="F46" t="n">
-        <v>42.52640697669882</v>
+        <v>42.52640697669896</v>
       </c>
       <c r="G46" t="n">
-        <v>42.52640697669882</v>
+        <v>42.52640697669896</v>
       </c>
       <c r="H46" t="n">
-        <v>42.52640697669882</v>
+        <v>42.52640697669896</v>
       </c>
       <c r="I46" t="n">
-        <v>42.52640697669882</v>
+        <v>42.52640697669896</v>
       </c>
       <c r="J46" t="n">
-        <v>42.52640697669882</v>
+        <v>42.52640697669896</v>
       </c>
       <c r="K46" t="n">
-        <v>54.98824776282545</v>
+        <v>54.98824776282555</v>
       </c>
       <c r="L46" t="n">
-        <v>126.7387286438879</v>
+        <v>126.738728643888</v>
       </c>
       <c r="M46" t="n">
         <v>212.9824501955798</v>
       </c>
       <c r="N46" t="n">
-        <v>302.3167507078089</v>
+        <v>302.3167507078088</v>
       </c>
       <c r="O46" t="n">
-        <v>369.4948398509577</v>
+        <v>369.4948398509575</v>
       </c>
       <c r="P46" t="n">
-        <v>403.7548190921432</v>
+        <v>403.754819092143</v>
       </c>
       <c r="Q46" t="n">
-        <v>403.7548190921432</v>
+        <v>403.754819092143</v>
       </c>
       <c r="R46" t="n">
-        <v>403.7548190921432</v>
+        <v>403.754819092143</v>
       </c>
       <c r="S46" t="n">
-        <v>379.1565339217354</v>
+        <v>379.1565339217353</v>
       </c>
       <c r="T46" t="n">
-        <v>345.3934984974048</v>
+        <v>345.3934984974047</v>
       </c>
       <c r="U46" t="n">
-        <v>252.324166344321</v>
+        <v>252.3241663443209</v>
       </c>
       <c r="V46" t="n">
-        <v>192.6922819233484</v>
+        <v>192.6922819233483</v>
       </c>
       <c r="W46" t="n">
-        <v>99.56926030997533</v>
+        <v>99.56926030997526</v>
       </c>
       <c r="X46" t="n">
-        <v>67.00403360075005</v>
+        <v>67.00403360075001</v>
       </c>
       <c r="Y46" t="n">
-        <v>41.90515645166722</v>
+        <v>41.90515645166721</v>
       </c>
     </row>
   </sheetData>
@@ -8456,10 +8456,10 @@
         <v>214.587604768856</v>
       </c>
       <c r="L8" t="n">
-        <v>229.8722545957376</v>
+        <v>236.8714165215091</v>
       </c>
       <c r="M8" t="n">
-        <v>227.5271966636498</v>
+        <v>231.8814408771318</v>
       </c>
       <c r="N8" t="n">
         <v>230.971600487217</v>
@@ -8468,10 +8468,10 @@
         <v>231.6396196166854</v>
       </c>
       <c r="P8" t="n">
-        <v>232.7460343419286</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q8" t="n">
-        <v>220.8075902863009</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R8" t="n">
         <v>68.34507666790174</v>
@@ -8532,10 +8532,10 @@
         <v>130.9605494805409</v>
       </c>
       <c r="K9" t="n">
-        <v>141.6892664805409</v>
+        <v>134.395403</v>
       </c>
       <c r="L9" t="n">
-        <v>142.0896822111489</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M9" t="n">
         <v>138.5806830739679</v>
@@ -8544,13 +8544,13 @@
         <v>128.05816928125</v>
       </c>
       <c r="O9" t="n">
-        <v>139.0313383333333</v>
+        <v>146.0305002591048</v>
       </c>
       <c r="P9" t="n">
         <v>137.9189107095128</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.482229733871</v>
+        <v>143.7760932144118</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8614,7 +8614,7 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L10" t="n">
-        <v>138.5117212999788</v>
+        <v>138.8064228547481</v>
       </c>
       <c r="M10" t="n">
         <v>142.7465028294557</v>
@@ -8623,10 +8623,10 @@
         <v>131.7872693341432</v>
       </c>
       <c r="O10" t="n">
-        <v>142.2889884710875</v>
+        <v>135.8722650176344</v>
       </c>
       <c r="P10" t="n">
-        <v>134.2848039479189</v>
+        <v>140.4068258466027</v>
       </c>
       <c r="Q10" t="n">
         <v>67.95667671286152</v>
@@ -8766,7 +8766,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>131.1346767540252</v>
+        <v>97.12620179826865</v>
       </c>
       <c r="K12" t="n">
         <v>275.0438464930818</v>
@@ -8775,19 +8775,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M12" t="n">
-        <v>86.60232425732835</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
-        <v>480.8299226811423</v>
+        <v>480.8299226811424</v>
       </c>
       <c r="O12" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P12" t="n">
-        <v>331.2012793855346</v>
+        <v>85.33575444766176</v>
       </c>
       <c r="Q12" t="n">
-        <v>218.4803792452831</v>
+        <v>100.6234370962409</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>175.8604797789569</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K14" t="n">
         <v>337.1112290740114</v>
@@ -9009,7 +9009,7 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L15" t="n">
-        <v>385.6739591155975</v>
+        <v>74.09582781953492</v>
       </c>
       <c r="M15" t="n">
         <v>484.3332662999999</v>
@@ -9018,13 +9018,13 @@
         <v>480.8299226811424</v>
       </c>
       <c r="O15" t="n">
-        <v>129.7428121541694</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P15" t="n">
-        <v>331.2012793855346</v>
+        <v>245.0484686389258</v>
       </c>
       <c r="Q15" t="n">
-        <v>100.6234370962409</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9243,7 +9243,7 @@
         <v>97.12620179826865</v>
       </c>
       <c r="K18" t="n">
-        <v>89.03348819311344</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L18" t="n">
         <v>385.6739591155975</v>
@@ -9252,16 +9252,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>480.8299226811424</v>
+        <v>117.1074555942275</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
-        <v>271.3461127476304</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>100.6234370962409</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9413,7 +9413,7 @@
         <v>454.8408013884635</v>
       </c>
       <c r="O20" t="n">
-        <v>396.0321885132552</v>
+        <v>396.0321885132553</v>
       </c>
       <c r="P20" t="n">
         <v>334.6706564983419</v>
@@ -9477,19 +9477,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>131.1346767540252</v>
+        <v>97.12620179826865</v>
       </c>
       <c r="K21" t="n">
-        <v>275.0438464930818</v>
+        <v>89.03348819311341</v>
       </c>
       <c r="L21" t="n">
-        <v>385.6739591155975</v>
+        <v>207.961850328651</v>
       </c>
       <c r="M21" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
-        <v>83.09898063847103</v>
+        <v>480.8299226811424</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
@@ -9723,16 +9723,16 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
-        <v>424.4780996620954</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>480.8299226811424</v>
+        <v>480.8299226811425</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
-        <v>331.2012793855346</v>
+        <v>271.3461127476308</v>
       </c>
       <c r="Q24" t="n">
         <v>100.6234370962409</v>
@@ -10662,13 +10662,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>97.12620179826865</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
-        <v>89.03348819311341</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
-        <v>385.6739591155975</v>
+        <v>130.4222614049358</v>
       </c>
       <c r="M36" t="n">
         <v>484.3332662999999</v>
@@ -10680,7 +10680,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P36" t="n">
-        <v>295.968414930598</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
         <v>100.6234370962409</v>
@@ -10899,7 +10899,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>131.1346767540252</v>
+        <v>97.12620179826865</v>
       </c>
       <c r="K39" t="n">
         <v>275.0438464930818</v>
@@ -10908,19 +10908,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
-        <v>448.6473707778215</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
         <v>489.1494036235106</v>
       </c>
       <c r="O39" t="n">
-        <v>72.19406771027394</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
-        <v>331.2012793855346</v>
+        <v>109.9580566306304</v>
       </c>
       <c r="Q39" t="n">
-        <v>218.4803792452831</v>
+        <v>100.6234370962409</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11148,7 +11148,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
-        <v>471.0637765242515</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
@@ -11157,7 +11157,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>218.4803792452831</v>
+        <v>191.0280864522384</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11373,7 +11373,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>103.6823839609806</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K45" t="n">
         <v>275.0438464930818</v>
@@ -11394,7 +11394,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
-        <v>218.4803792452831</v>
+        <v>191.0280864522388</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>285.5367619561717</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>72.14368396580699</v>
       </c>
       <c r="T11" t="n">
-        <v>98.90968818169262</v>
+        <v>98.9096881816926</v>
       </c>
       <c r="U11" t="n">
-        <v>54.43052032126085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>206.7761199981502</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>17.99825597188924</v>
       </c>
       <c r="X11" t="n">
-        <v>249.1044976068002</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>264.9299702268667</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>10.9620148870395</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>10.96201488703948</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>261.9593084670259</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>245.2279941545735</v>
       </c>
       <c r="D14" t="n">
-        <v>234.8476312302292</v>
+        <v>30.08183778409501</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>255.5662314653981</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>98.90968818169262</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>129.6786594938135</v>
       </c>
       <c r="V14" t="n">
         <v>206.7761199981502</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>228.7730154761854</v>
       </c>
       <c r="X14" t="n">
         <v>249.1044976068002</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>264.9299702268667</v>
       </c>
     </row>
     <row r="15">
@@ -23659,10 +23659,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>10.9620148870402</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>10.96201488703988</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2.700062395888381e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26317,7 +26317,7 @@
         <v>243646.9133267222</v>
       </c>
       <c r="D2" t="n">
-        <v>243995.2682465528</v>
+        <v>243995.2682465527</v>
       </c>
       <c r="E2" t="n">
         <v>209387.7511011125</v>
@@ -26326,19 +26326,19 @@
         <v>209387.7511011126</v>
       </c>
       <c r="G2" t="n">
+        <v>244175.8225844809</v>
+      </c>
+      <c r="H2" t="n">
+        <v>244175.8225844809</v>
+      </c>
+      <c r="I2" t="n">
         <v>244175.822584481</v>
-      </c>
-      <c r="H2" t="n">
-        <v>244175.822584481</v>
-      </c>
-      <c r="I2" t="n">
-        <v>244175.8225844809</v>
       </c>
       <c r="J2" t="n">
         <v>244175.8225844808</v>
       </c>
       <c r="K2" t="n">
-        <v>244175.8225844808</v>
+        <v>244175.8225844807</v>
       </c>
       <c r="L2" t="n">
         <v>244175.8225844808</v>
@@ -26347,10 +26347,10 @@
         <v>244175.8225844809</v>
       </c>
       <c r="N2" t="n">
-        <v>244175.8225844809</v>
+        <v>244175.8225844808</v>
       </c>
       <c r="O2" t="n">
-        <v>244175.8225844806</v>
+        <v>244175.8225844807</v>
       </c>
       <c r="P2" t="n">
         <v>244175.8225844807</v>
@@ -26372,13 +26372,13 @@
         <v>2265.6928129604</v>
       </c>
       <c r="E3" t="n">
-        <v>327298.2254357562</v>
+        <v>327298.2254357563</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>81280.16665476354</v>
+        <v>81280.16665476355</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>109806.815889704</v>
       </c>
       <c r="K3" t="n">
-        <v>5.5409215677243e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>82789.8213425119</v>
+        <v>82789.82134251193</v>
       </c>
       <c r="M3" t="n">
-        <v>95807.27948275866</v>
+        <v>95807.27948275865</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32617.61304535322</v>
+        <v>32617.61304535315</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>411400.6963116435</v>
       </c>
       <c r="D4" t="n">
-        <v>411081.3804480529</v>
+        <v>411081.3804480528</v>
       </c>
       <c r="E4" t="n">
         <v>268316.749354986</v>
@@ -26430,13 +26430,13 @@
         <v>268316.749354986</v>
       </c>
       <c r="G4" t="n">
+        <v>334243.2484646651</v>
+      </c>
+      <c r="H4" t="n">
         <v>334243.248464665</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>334243.2484646651</v>
-      </c>
-      <c r="I4" t="n">
-        <v>334243.248464665</v>
       </c>
       <c r="J4" t="n">
         <v>331499.4459803788</v>
@@ -26448,13 +26448,13 @@
         <v>331460.3792911308</v>
       </c>
       <c r="M4" t="n">
-        <v>333951.6538716753</v>
+        <v>333951.6538716752</v>
       </c>
       <c r="N4" t="n">
         <v>333951.6538716753</v>
       </c>
       <c r="O4" t="n">
-        <v>330809.2492475862</v>
+        <v>330809.2492475861</v>
       </c>
       <c r="P4" t="n">
         <v>330809.2492475861</v>
@@ -26494,10 +26494,10 @@
         <v>58664.78374388418</v>
       </c>
       <c r="K5" t="n">
-        <v>58664.78374388418</v>
+        <v>58664.78374388419</v>
       </c>
       <c r="L5" t="n">
-        <v>58379.96079419769</v>
+        <v>58379.9607941977</v>
       </c>
       <c r="M5" t="n">
         <v>47794.85782624554</v>
@@ -26506,10 +26506,10 @@
         <v>47794.85782624556</v>
       </c>
       <c r="O5" t="n">
-        <v>50996.08120559494</v>
+        <v>50996.08120559492</v>
       </c>
       <c r="P5" t="n">
-        <v>50996.08120559494</v>
+        <v>50996.08120559492</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-201381.3829849213</v>
+        <v>-201385.7905620694</v>
       </c>
       <c r="C6" t="n">
-        <v>-201381.3829849214</v>
+        <v>-201385.7905620694</v>
       </c>
       <c r="D6" t="n">
-        <v>-203422.8719140774</v>
+        <v>-203424.3765335601</v>
       </c>
       <c r="E6" t="n">
-        <v>-425201.0184988325</v>
+        <v>-425490.9190945273</v>
       </c>
       <c r="F6" t="n">
-        <v>-97902.79306307629</v>
+        <v>-98192.69365877102</v>
       </c>
       <c r="G6" t="n">
-        <v>-218862.8152572745</v>
+        <v>-218862.8152572747</v>
       </c>
       <c r="H6" t="n">
         <v>-137582.6486025111</v>
       </c>
       <c r="I6" t="n">
-        <v>-137582.6486025111</v>
+        <v>-137582.6486025112</v>
       </c>
       <c r="J6" t="n">
-        <v>-255795.2230294862</v>
+        <v>-255795.2230294861</v>
       </c>
       <c r="K6" t="n">
-        <v>-145988.4071397822</v>
+        <v>-145988.4071397823</v>
       </c>
       <c r="L6" t="n">
         <v>-228454.3388433596</v>
       </c>
       <c r="M6" t="n">
-        <v>-233377.9685961986</v>
+        <v>-233377.9685961985</v>
       </c>
       <c r="N6" t="n">
-        <v>-137570.6891134399</v>
+        <v>-137570.68911344</v>
       </c>
       <c r="O6" t="n">
-        <v>-170247.1209140537</v>
+        <v>-170247.1209140535</v>
       </c>
       <c r="P6" t="n">
-        <v>-137629.5078687004</v>
+        <v>-137629.5078687003</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>121.7571015243691</v>
       </c>
       <c r="F2" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="G2" t="n">
         <v>223.3573098428236</v>
@@ -26710,7 +26710,7 @@
         <v>142.1668396148275</v>
       </c>
       <c r="K2" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="L2" t="n">
         <v>144.053907974513</v>
@@ -26722,7 +26722,7 @@
         <v>220.6667897060618</v>
       </c>
       <c r="O2" t="n">
-        <v>193.9007854901763</v>
+        <v>193.9007854901762</v>
       </c>
       <c r="P2" t="n">
         <v>193.9007854901762</v>
@@ -26774,10 +26774,10 @@
         <v>130.6017049061569</v>
       </c>
       <c r="O3" t="n">
-        <v>130.601704906157</v>
+        <v>130.6017049061569</v>
       </c>
       <c r="P3" t="n">
-        <v>130.6017049061571</v>
+        <v>130.6017049061569</v>
       </c>
     </row>
     <row r="4">
@@ -26796,7 +26796,7 @@
         <v>7.293863480540836</v>
       </c>
       <c r="E4" t="n">
-        <v>425.8335505624414</v>
+        <v>425.8335505624415</v>
       </c>
       <c r="F4" t="n">
         <v>425.8335505624415</v>
@@ -26808,16 +26808,16 @@
         <v>425.8335505624415</v>
       </c>
       <c r="I4" t="n">
-        <v>425.8335505624415</v>
+        <v>425.8335505624416</v>
       </c>
       <c r="J4" t="n">
         <v>721.4776733116945</v>
       </c>
       <c r="K4" t="n">
-        <v>721.4776733116945</v>
+        <v>721.4776733116946</v>
       </c>
       <c r="L4" t="n">
-        <v>714.1838098311537</v>
+        <v>714.1838098311538</v>
       </c>
       <c r="M4" t="n">
         <v>434.1530315048094</v>
@@ -26826,10 +26826,10 @@
         <v>434.1530315048096</v>
       </c>
       <c r="O4" t="n">
-        <v>523.8144556458402</v>
+        <v>523.81445564584</v>
       </c>
       <c r="P4" t="n">
-        <v>523.8144556458402</v>
+        <v>523.8144556458401</v>
       </c>
     </row>
   </sheetData>
@@ -26917,7 +26917,7 @@
         <v>121.7571015243691</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>101.6002083184544</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.56663129637307</v>
+        <v>40.56663129637309</v>
       </c>
       <c r="K2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>103.4872766781399</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>13.80062708048759</v>
+        <v>13.80062708048757</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>295.644122749253</v>
+        <v>295.6441227492529</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>89.66142414103058</v>
+        <v>89.66142414103035</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>121.7571015243691</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>101.6002083184544</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.56663129637307</v>
+        <v>40.56663129637309</v>
       </c>
       <c r="P2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27859,7 +27859,7 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E8" t="n">
-        <v>377.3528779361895</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>134.5569592203362</v>
       </c>
       <c r="S8" t="n">
-        <v>198.5710882429984</v>
+        <v>200.0997939044413</v>
       </c>
       <c r="T8" t="n">
         <v>222.9651171964204</v>
@@ -27935,19 +27935,19 @@
         <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
-        <v>139.6879886209852</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
-        <v>148.739570226633</v>
+        <v>149.6089987535134</v>
       </c>
       <c r="F9" t="n">
-        <v>143.5062320835493</v>
+        <v>136.2123686030085</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0232102050423</v>
+        <v>128.7293467245015</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4625155221328</v>
+        <v>103.1686520415919</v>
       </c>
       <c r="I9" t="n">
         <v>86.50354346547167</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>87.40111628055038</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
         <v>168.9616139056444</v>
@@ -27986,7 +27986,7 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
-        <v>217.3633135866604</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
         <v>231.9087310396551</v>
@@ -28014,10 +28014,10 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D10" t="n">
-        <v>149.0055665145194</v>
+        <v>142.581131560859</v>
       </c>
       <c r="E10" t="n">
-        <v>146.9746241731992</v>
+        <v>139.6807606926583</v>
       </c>
       <c r="F10" t="n">
         <v>146.1590214098045</v>
@@ -28029,10 +28029,10 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I10" t="n">
-        <v>147.3341118437433</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J10" t="n">
-        <v>88.83884492777894</v>
+        <v>81.5449814472381</v>
       </c>
       <c r="K10" t="n">
         <v>7.480546237292515</v>
@@ -28074,10 +28074,10 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X10" t="n">
-        <v>218.8464964517684</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.4548103872274</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="11">
@@ -28169,7 +28169,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>121.7571015243691</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -28178,13 +28178,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>121.7571015243691</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>121.7571015243691</v>
       </c>
       <c r="H12" t="n">
-        <v>107.7494499164407</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -28214,10 +28214,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>77.25349169834067</v>
       </c>
       <c r="S12" t="n">
-        <v>42.6661554378941</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="T12" t="n">
         <v>121.7571015243691</v>
@@ -28226,16 +28226,16 @@
         <v>121.7571015243691</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="W12" t="n">
         <v>121.7571015243691</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="Y12" t="n">
-        <v>121.7571015243691</v>
+        <v>73.16211365599372</v>
       </c>
     </row>
     <row r="13">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="C14" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="D14" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="E14" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="F14" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="G14" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="H14" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="I14" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>108.8702826172132</v>
       </c>
       <c r="S14" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="T14" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="U14" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="V14" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="W14" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="X14" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="Y14" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
     </row>
     <row r="15">
@@ -28403,22 +28403,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="C15" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="D15" t="n">
-        <v>121.7571015243692</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="H15" t="n">
         <v>107.7494499164407</v>
@@ -28451,16 +28451,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>77.25349169834067</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>10.33814051084028</v>
       </c>
       <c r="U15" t="n">
-        <v>87.59163220918094</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -28469,10 +28469,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="Y15" t="n">
-        <v>121.7571015243692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="C16" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="D16" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="E16" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="F16" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="G16" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="H16" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="I16" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="J16" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="K16" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="L16" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="M16" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="N16" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="O16" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="P16" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="Q16" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="R16" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="S16" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="T16" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="U16" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="V16" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="W16" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="X16" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="Y16" t="n">
-        <v>121.7571015243692</v>
+        <v>121.7571015243691</v>
       </c>
     </row>
     <row r="17">
@@ -28640,28 +28640,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.7422933303385</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>76.83162475308174</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,13 +28688,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>77.25349169834067</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>197.2502397685634</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -28706,10 +28706,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>160.500597786767</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
-        <v>203.671151418586</v>
+        <v>11.63637107539279</v>
       </c>
     </row>
     <row r="19">
@@ -28785,10 +28785,10 @@
         <v>223.3573098428236</v>
       </c>
       <c r="X19" t="n">
-        <v>27.48953540307281</v>
+        <v>223.3573098428236</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.7486738677682</v>
+        <v>22.88089942801736</v>
       </c>
     </row>
     <row r="20">
@@ -28886,13 +28886,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.7422933303385</v>
       </c>
       <c r="H21" t="n">
         <v>107.7494499164407</v>
@@ -28928,22 +28928,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>163.7437061671767</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>179.181130815748</v>
       </c>
       <c r="U21" t="n">
-        <v>223.3573098428236</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>22.90044431833141</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>203.671151418586</v>
@@ -29007,10 +29007,10 @@
         <v>162.8017045146044</v>
       </c>
       <c r="S22" t="n">
-        <v>218.2530878088799</v>
+        <v>22.38531336912899</v>
       </c>
       <c r="T22" t="n">
-        <v>27.48953540307275</v>
+        <v>223.3573098428236</v>
       </c>
       <c r="U22" t="n">
         <v>223.3573098428236</v>
@@ -29077,7 +29077,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>6.536993168992922e-13</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -29114,16 +29114,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4960601713178789</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -29132,7 +29132,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>107.7494499164407</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>76.83162475308174</v>
@@ -29165,22 +29165,22 @@
         <v>77.25349169834067</v>
       </c>
       <c r="S24" t="n">
-        <v>163.7437061671767</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>197.2502397685634</v>
       </c>
       <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
         <v>223.3573098428236</v>
       </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>91.62494042436279</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -29211,13 +29211,13 @@
         <v>167.6540776589658</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>159.5401627073066</v>
       </c>
       <c r="I25" t="n">
         <v>146.6760805706894</v>
       </c>
       <c r="J25" t="n">
-        <v>35.86058632557762</v>
+        <v>72.18819805802185</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29247,7 +29247,7 @@
         <v>218.2530878088799</v>
       </c>
       <c r="T25" t="n">
-        <v>223.3573098428236</v>
+        <v>27.48953540307275</v>
       </c>
       <c r="U25" t="n">
         <v>223.3573098428236</v>
@@ -29308,7 +29308,7 @@
         <v>142.1668396148275</v>
       </c>
       <c r="N26" t="n">
-        <v>142.1668396148275</v>
+        <v>142.1668396148271</v>
       </c>
       <c r="O26" t="n">
         <v>142.1668396148275</v>
@@ -29351,25 +29351,25 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>142.1668396148275</v>
       </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
       <c r="G27" t="n">
-        <v>14.97939211489742</v>
+        <v>49.39678181328404</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>107.7494499164407</v>
       </c>
       <c r="I27" t="n">
         <v>76.83162475308174</v>
@@ -29402,13 +29402,13 @@
         <v>77.25349169834067</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="T27" t="n">
-        <v>142.1668396148275</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>142.1668396148275</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -29454,25 +29454,25 @@
         <v>142.1668396148275</v>
       </c>
       <c r="J28" t="n">
-        <v>72.18819805802185</v>
+        <v>83.38782679931566</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="L28" t="n">
-        <v>11.19962874129376</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="N28" t="n">
         <v>142.1668396148275</v>
       </c>
       <c r="O28" t="n">
-        <v>142.1668396148275</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>142.1668396148275</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>142.1668396148275</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="C29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="D29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="E29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="F29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="G29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="H29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="I29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="J29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="K29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="L29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="M29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="N29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="O29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="P29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="Q29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="R29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="S29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="T29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="U29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="V29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="W29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="X29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="Y29" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
     </row>
     <row r="30">
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>142.1668396148276</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -29603,13 +29603,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>135.7422933303385</v>
       </c>
       <c r="H30" t="n">
-        <v>107.7494499164407</v>
+        <v>21.40393839938649</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>76.83162475308174</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,13 +29636,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>77.25349169834067</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="T30" t="n">
-        <v>61.31505864987909</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -29654,10 +29654,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>142.1668396148276</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>142.1668396148276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="C31" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="D31" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="E31" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="F31" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="G31" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="H31" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="I31" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="J31" t="n">
-        <v>72.18819805802185</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="K31" t="n">
-        <v>93.32662592110232</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="M31" t="n">
-        <v>142.1668396148276</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="O31" t="n">
-        <v>142.1668396148276</v>
+        <v>83.38782679931558</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>60.03984243501849</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="R31" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="S31" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="T31" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="U31" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="V31" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="W31" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="X31" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
       <c r="Y31" t="n">
-        <v>142.1668396148276</v>
+        <v>142.1668396148275</v>
       </c>
     </row>
     <row r="32">
@@ -29773,7 +29773,7 @@
         <v>144.053907974513</v>
       </c>
       <c r="K32" t="n">
-        <v>144.053907974513</v>
+        <v>98.18954036994964</v>
       </c>
       <c r="L32" t="n">
         <v>144.053907974513</v>
@@ -29791,7 +29791,7 @@
         <v>144.053907974513</v>
       </c>
       <c r="Q32" t="n">
-        <v>98.18954036994927</v>
+        <v>144.053907974513</v>
       </c>
       <c r="R32" t="n">
         <v>144.053907974513</v>
@@ -29837,13 +29837,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
         <v>135.7422933303385</v>
       </c>
       <c r="H33" t="n">
-        <v>17.6298016800154</v>
+        <v>18.17747757097864</v>
       </c>
       <c r="I33" t="n">
         <v>76.83162475308174</v>
@@ -29876,13 +29876,13 @@
         <v>77.25349169834067</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>144.053907974513</v>
       </c>
       <c r="T33" t="n">
-        <v>144.053907974513</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>144.053907974513</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -29928,28 +29928,28 @@
         <v>144.053907974513</v>
       </c>
       <c r="J34" t="n">
-        <v>72.18819805802185</v>
+        <v>144.053907974513</v>
       </c>
       <c r="K34" t="n">
-        <v>56.85928498349334</v>
+        <v>144.053907974513</v>
       </c>
       <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
         <v>144.053907974513</v>
       </c>
-      <c r="M34" t="n">
+      <c r="O34" t="n">
+        <v>45.03341750202055</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
         <v>144.053907974513</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>144.053907974513</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>60.03984243501849</v>
       </c>
       <c r="R34" t="n">
         <v>144.053907974513</v>
@@ -30004,7 +30004,7 @@
         <v>220.6667897060618</v>
       </c>
       <c r="I35" t="n">
-        <v>191.1587913870431</v>
+        <v>184.9830124775929</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>108.8702826172132</v>
+        <v>115.0460615266635</v>
       </c>
       <c r="S35" t="n">
         <v>220.6667897060618</v>
@@ -30062,28 +30062,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>135.7422933303385</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>107.7494499164407</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>76.83162475308174</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30119,7 +30119,7 @@
         <v>197.2502397685634</v>
       </c>
       <c r="U36" t="n">
-        <v>46.48614313949045</v>
+        <v>26.36462804929073</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30131,7 +30131,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="37">
@@ -30195,7 +30195,7 @@
         <v>218.2530878088799</v>
       </c>
       <c r="T37" t="n">
-        <v>38.25161595012008</v>
+        <v>220.6667897060618</v>
       </c>
       <c r="U37" t="n">
         <v>220.6667897060618</v>
@@ -30210,7 +30210,7 @@
         <v>220.6667897060618</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.7486738677682</v>
+        <v>36.33350011182651</v>
       </c>
     </row>
     <row r="38">
@@ -30268,10 +30268,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>141.8120657425501</v>
+        <v>115.0460615266645</v>
       </c>
       <c r="S38" t="n">
-        <v>193.9007854901762</v>
+        <v>220.6667897060618</v>
       </c>
       <c r="T38" t="n">
         <v>220.6667897060618</v>
@@ -30305,22 +30305,22 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>135.7422933303385</v>
+        <v>86.52954738432652</v>
       </c>
       <c r="H39" t="n">
-        <v>42.01784542132808</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>76.83162475308174</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30350,19 +30350,19 @@
         <v>77.25349169834067</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>163.7437061671767</v>
       </c>
       <c r="T39" t="n">
         <v>197.2502397685634</v>
       </c>
       <c r="U39" t="n">
-        <v>220.6667897060618</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>220.6667897060618</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -30396,7 +30396,7 @@
         <v>167.6540776589658</v>
       </c>
       <c r="H40" t="n">
-        <v>159.5401627073066</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>146.6760805706894</v>
@@ -30444,10 +30444,10 @@
         <v>220.6667897060618</v>
       </c>
       <c r="X40" t="n">
-        <v>220.6667897060618</v>
+        <v>197.7917786574267</v>
       </c>
       <c r="Y40" t="n">
-        <v>36.33350011182654</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="41">
@@ -30457,31 +30457,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>193.9007854901763</v>
+        <v>193.9007854901762</v>
       </c>
       <c r="C41" t="n">
-        <v>193.9007854901763</v>
+        <v>193.9007854901762</v>
       </c>
       <c r="D41" t="n">
-        <v>193.9007854901763</v>
+        <v>193.9007854901762</v>
       </c>
       <c r="E41" t="n">
-        <v>193.9007854901763</v>
+        <v>193.9007854901762</v>
       </c>
       <c r="F41" t="n">
-        <v>193.9007854901763</v>
+        <v>193.9007854901762</v>
       </c>
       <c r="G41" t="n">
-        <v>193.9007854901763</v>
+        <v>193.9007854901762</v>
       </c>
       <c r="H41" t="n">
-        <v>193.9007854901763</v>
+        <v>193.9007854901762</v>
       </c>
       <c r="I41" t="n">
-        <v>193.9007854901763</v>
+        <v>193.9007854901762</v>
       </c>
       <c r="J41" t="n">
-        <v>100.1157345100577</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30493,40 +30493,40 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>193.9007854901762</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>193.9007854901763</v>
+        <v>100.1157345100572</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>193.9007854901763</v>
+        <v>193.9007854901762</v>
       </c>
       <c r="S41" t="n">
-        <v>193.9007854901763</v>
+        <v>193.9007854901762</v>
       </c>
       <c r="T41" t="n">
-        <v>193.9007854901763</v>
+        <v>193.9007854901762</v>
       </c>
       <c r="U41" t="n">
-        <v>193.9007854901763</v>
+        <v>193.9007854901762</v>
       </c>
       <c r="V41" t="n">
-        <v>193.9007854901763</v>
+        <v>193.9007854901762</v>
       </c>
       <c r="W41" t="n">
-        <v>193.9007854901763</v>
+        <v>193.9007854901762</v>
       </c>
       <c r="X41" t="n">
-        <v>193.9007854901763</v>
+        <v>193.9007854901762</v>
       </c>
       <c r="Y41" t="n">
-        <v>193.9007854901763</v>
+        <v>193.9007854901762</v>
       </c>
     </row>
     <row r="42">
@@ -30551,10 +30551,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>135.7422933303385</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>107.7494499164407</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -30584,13 +30584,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>77.25349169834065</v>
+        <v>77.25349169834067</v>
       </c>
       <c r="S42" t="n">
         <v>163.7437061671767</v>
       </c>
       <c r="T42" t="n">
-        <v>137.9820784649685</v>
+        <v>187.5730362215724</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -30605,7 +30605,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>193.9007854901762</v>
       </c>
     </row>
     <row r="43">
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>180.0836914906838</v>
+        <v>180.7112172735442</v>
       </c>
       <c r="C43" t="n">
         <v>167.3365529312023</v>
@@ -30636,10 +30636,10 @@
         <v>159.5401627073066</v>
       </c>
       <c r="I43" t="n">
-        <v>147.3036063535494</v>
+        <v>146.6760805706894</v>
       </c>
       <c r="J43" t="n">
-        <v>72.18819805802184</v>
+        <v>72.18819805802185</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>60.03984243501847</v>
+        <v>60.03984243501849</v>
       </c>
       <c r="R43" t="n">
         <v>162.8017045146044</v>
       </c>
       <c r="S43" t="n">
-        <v>193.9007854901763</v>
+        <v>193.9007854901762</v>
       </c>
       <c r="T43" t="n">
-        <v>193.9007854901763</v>
+        <v>193.9007854901762</v>
       </c>
       <c r="U43" t="n">
-        <v>193.9007854901763</v>
+        <v>193.9007854901762</v>
       </c>
       <c r="V43" t="n">
-        <v>193.9007854901763</v>
+        <v>193.9007854901762</v>
       </c>
       <c r="W43" t="n">
-        <v>193.9007854901763</v>
+        <v>193.9007854901762</v>
       </c>
       <c r="X43" t="n">
-        <v>193.9007854901763</v>
+        <v>193.9007854901762</v>
       </c>
       <c r="Y43" t="n">
-        <v>193.9007854901763</v>
+        <v>193.9007854901762</v>
       </c>
     </row>
     <row r="44">
@@ -30718,28 +30718,28 @@
         <v>193.9007854901762</v>
       </c>
       <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>193.9007854901762</v>
       </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
       <c r="P44" t="n">
-        <v>100.1157345100573</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>100.115734510058</v>
       </c>
       <c r="R44" t="n">
         <v>193.9007854901762</v>
@@ -30785,7 +30785,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>108.2468660872276</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>135.7422933303385</v>
@@ -30794,7 +30794,7 @@
         <v>107.7494499164407</v>
       </c>
       <c r="I45" t="n">
-        <v>76.83162475308173</v>
+        <v>76.83162475308174</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30827,13 +30827,13 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>108.2468660872279</v>
+      </c>
+      <c r="V45" t="n">
         <v>193.9007854901762</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -30852,13 +30852,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>180.711217273544</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C46" t="n">
         <v>167.3365529312023</v>
       </c>
       <c r="D46" t="n">
-        <v>149.0055665145194</v>
+        <v>149.6330922973797</v>
       </c>
       <c r="E46" t="n">
         <v>146.9746241731992</v>
@@ -30876,7 +30876,7 @@
         <v>146.6760805706894</v>
       </c>
       <c r="J46" t="n">
-        <v>72.18819805802183</v>
+        <v>72.18819805802185</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>60.03984243501845</v>
+        <v>60.03984243501849</v>
       </c>
       <c r="R46" t="n">
         <v>162.8017045146044</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5250319795222382</v>
+        <v>0.5250319795222383</v>
       </c>
       <c r="H11" t="n">
-        <v>5.376983760282124</v>
+        <v>5.376983760282125</v>
       </c>
       <c r="I11" t="n">
         <v>20.24129539053111</v>
       </c>
       <c r="J11" t="n">
-        <v>44.56143297197561</v>
+        <v>44.56143297197562</v>
       </c>
       <c r="K11" t="n">
-        <v>66.78603666515197</v>
+        <v>66.78603666515198</v>
       </c>
       <c r="L11" t="n">
-        <v>82.85398410845569</v>
+        <v>82.85398410845571</v>
       </c>
       <c r="M11" t="n">
-        <v>92.19102157428429</v>
+        <v>92.19102157428431</v>
       </c>
       <c r="N11" t="n">
-        <v>93.68276868610185</v>
+        <v>93.68276868610188</v>
       </c>
       <c r="O11" t="n">
-        <v>88.46198193972759</v>
+        <v>88.46198193972761</v>
       </c>
       <c r="P11" t="n">
-        <v>75.50025494527232</v>
+        <v>75.50025494527235</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.69754717863215</v>
+        <v>56.69754717863216</v>
       </c>
       <c r="R11" t="n">
         <v>32.98054008366383</v>
@@ -31789,10 +31789,10 @@
         <v>11.96416623336302</v>
       </c>
       <c r="T11" t="n">
-        <v>2.298327490358599</v>
+        <v>2.2983274903586</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04200255836177905</v>
+        <v>0.04200255836177906</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2809168747038091</v>
+        <v>0.2809168747038092</v>
       </c>
       <c r="H12" t="n">
-        <v>2.713065605692051</v>
+        <v>2.713065605692052</v>
       </c>
       <c r="I12" t="n">
-        <v>9.671918712389921</v>
+        <v>9.671918712389923</v>
       </c>
       <c r="J12" t="n">
-        <v>26.54048420173137</v>
+        <v>26.54048420173138</v>
       </c>
       <c r="K12" t="n">
-        <v>45.36191480688658</v>
+        <v>45.3619148068866</v>
       </c>
       <c r="L12" t="n">
-        <v>60.99469246584242</v>
+        <v>60.99469246584243</v>
       </c>
       <c r="M12" t="n">
-        <v>71.17792917385549</v>
+        <v>71.1779291738555</v>
       </c>
       <c r="N12" t="n">
-        <v>73.06179716254903</v>
+        <v>73.06179716254904</v>
       </c>
       <c r="O12" t="n">
-        <v>66.83727062305935</v>
+        <v>66.83727062305937</v>
       </c>
       <c r="P12" t="n">
-        <v>53.64280215287036</v>
+        <v>53.64280215287037</v>
       </c>
       <c r="Q12" t="n">
         <v>35.8587926376301</v>
@@ -31865,13 +31865,13 @@
         <v>17.44148806275054</v>
       </c>
       <c r="S12" t="n">
-        <v>5.217907738467679</v>
+        <v>5.21790773846768</v>
       </c>
       <c r="T12" t="n">
         <v>1.132292139705265</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01848137333577692</v>
+        <v>0.01848137333577693</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,31 +31911,31 @@
         <v>0.2355112711422501</v>
       </c>
       <c r="H13" t="n">
-        <v>2.093909301610188</v>
+        <v>2.093909301610189</v>
       </c>
       <c r="I13" t="n">
-        <v>7.082466226714213</v>
+        <v>7.082466226714215</v>
       </c>
       <c r="J13" t="n">
         <v>16.65064686975708</v>
       </c>
       <c r="K13" t="n">
-        <v>27.36212768361777</v>
+        <v>27.36212768361778</v>
       </c>
       <c r="L13" t="n">
-        <v>35.01410298418507</v>
+        <v>35.01410298418508</v>
       </c>
       <c r="M13" t="n">
-        <v>36.91746225732561</v>
+        <v>36.91746225732562</v>
       </c>
       <c r="N13" t="n">
-        <v>36.0396475194318</v>
+        <v>36.03964751943181</v>
       </c>
       <c r="O13" t="n">
-        <v>33.28844767017914</v>
+        <v>33.28844767017915</v>
       </c>
       <c r="P13" t="n">
-        <v>28.48401773887721</v>
+        <v>28.48401773887722</v>
       </c>
       <c r="Q13" t="n">
         <v>19.72085744082969</v>
@@ -31944,7 +31944,7 @@
         <v>10.5894431551779</v>
       </c>
       <c r="S13" t="n">
-        <v>4.104319152542666</v>
+        <v>4.104319152542667</v>
       </c>
       <c r="T13" t="n">
         <v>1.006275431244159</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5250319795222382</v>
+        <v>0.5250319795222383</v>
       </c>
       <c r="H14" t="n">
-        <v>5.376983760282124</v>
+        <v>5.376983760282125</v>
       </c>
       <c r="I14" t="n">
         <v>20.24129539053111</v>
       </c>
       <c r="J14" t="n">
-        <v>44.56143297197561</v>
+        <v>44.56143297197562</v>
       </c>
       <c r="K14" t="n">
-        <v>66.78603666515197</v>
+        <v>66.78603666515198</v>
       </c>
       <c r="L14" t="n">
-        <v>82.85398410845569</v>
+        <v>82.85398410845571</v>
       </c>
       <c r="M14" t="n">
-        <v>92.19102157428429</v>
+        <v>92.19102157428431</v>
       </c>
       <c r="N14" t="n">
-        <v>93.68276868610185</v>
+        <v>93.68276868610188</v>
       </c>
       <c r="O14" t="n">
-        <v>88.46198193972759</v>
+        <v>88.46198193972761</v>
       </c>
       <c r="P14" t="n">
-        <v>75.50025494527232</v>
+        <v>75.50025494527235</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.69754717863215</v>
+        <v>56.69754717863216</v>
       </c>
       <c r="R14" t="n">
         <v>32.98054008366383</v>
@@ -32026,10 +32026,10 @@
         <v>11.96416623336302</v>
       </c>
       <c r="T14" t="n">
-        <v>2.298327490358599</v>
+        <v>2.2983274903586</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04200255836177905</v>
+        <v>0.04200255836177906</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2809168747038091</v>
+        <v>0.2809168747038092</v>
       </c>
       <c r="H15" t="n">
-        <v>2.713065605692051</v>
+        <v>2.713065605692052</v>
       </c>
       <c r="I15" t="n">
-        <v>9.671918712389921</v>
+        <v>9.671918712389923</v>
       </c>
       <c r="J15" t="n">
-        <v>26.54048420173137</v>
+        <v>26.54048420173138</v>
       </c>
       <c r="K15" t="n">
-        <v>45.36191480688658</v>
+        <v>45.3619148068866</v>
       </c>
       <c r="L15" t="n">
-        <v>60.99469246584242</v>
+        <v>60.99469246584243</v>
       </c>
       <c r="M15" t="n">
-        <v>71.17792917385549</v>
+        <v>71.1779291738555</v>
       </c>
       <c r="N15" t="n">
-        <v>73.06179716254903</v>
+        <v>73.06179716254904</v>
       </c>
       <c r="O15" t="n">
-        <v>66.83727062305935</v>
+        <v>66.83727062305937</v>
       </c>
       <c r="P15" t="n">
-        <v>53.64280215287036</v>
+        <v>53.64280215287037</v>
       </c>
       <c r="Q15" t="n">
         <v>35.8587926376301</v>
@@ -32102,13 +32102,13 @@
         <v>17.44148806275054</v>
       </c>
       <c r="S15" t="n">
-        <v>5.217907738467679</v>
+        <v>5.21790773846768</v>
       </c>
       <c r="T15" t="n">
         <v>1.132292139705265</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01848137333577692</v>
+        <v>0.01848137333577693</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,31 +32148,31 @@
         <v>0.2355112711422501</v>
       </c>
       <c r="H16" t="n">
-        <v>2.093909301610188</v>
+        <v>2.093909301610189</v>
       </c>
       <c r="I16" t="n">
-        <v>7.082466226714213</v>
+        <v>7.082466226714215</v>
       </c>
       <c r="J16" t="n">
         <v>16.65064686975708</v>
       </c>
       <c r="K16" t="n">
-        <v>27.36212768361777</v>
+        <v>27.36212768361778</v>
       </c>
       <c r="L16" t="n">
-        <v>35.01410298418507</v>
+        <v>35.01410298418508</v>
       </c>
       <c r="M16" t="n">
-        <v>36.91746225732561</v>
+        <v>36.91746225732562</v>
       </c>
       <c r="N16" t="n">
-        <v>36.0396475194318</v>
+        <v>36.03964751943181</v>
       </c>
       <c r="O16" t="n">
-        <v>33.28844767017914</v>
+        <v>33.28844767017915</v>
       </c>
       <c r="P16" t="n">
-        <v>28.48401773887721</v>
+        <v>28.48401773887722</v>
       </c>
       <c r="Q16" t="n">
         <v>19.72085744082969</v>
@@ -32181,7 +32181,7 @@
         <v>10.5894431551779</v>
       </c>
       <c r="S16" t="n">
-        <v>4.104319152542666</v>
+        <v>4.104319152542667</v>
       </c>
       <c r="T16" t="n">
         <v>1.006275431244159</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5250319795222382</v>
+        <v>0.5250319795222383</v>
       </c>
       <c r="H17" t="n">
-        <v>5.376983760282124</v>
+        <v>5.376983760282125</v>
       </c>
       <c r="I17" t="n">
         <v>20.24129539053111</v>
       </c>
       <c r="J17" t="n">
-        <v>44.56143297197561</v>
+        <v>44.56143297197562</v>
       </c>
       <c r="K17" t="n">
-        <v>66.78603666515197</v>
+        <v>66.78603666515198</v>
       </c>
       <c r="L17" t="n">
-        <v>82.85398410845569</v>
+        <v>82.85398410845571</v>
       </c>
       <c r="M17" t="n">
-        <v>92.19102157428429</v>
+        <v>92.19102157428431</v>
       </c>
       <c r="N17" t="n">
-        <v>93.68276868610185</v>
+        <v>93.68276868610188</v>
       </c>
       <c r="O17" t="n">
-        <v>88.46198193972759</v>
+        <v>88.46198193972761</v>
       </c>
       <c r="P17" t="n">
-        <v>75.50025494527232</v>
+        <v>75.50025494527235</v>
       </c>
       <c r="Q17" t="n">
-        <v>56.69754717863215</v>
+        <v>56.69754717863216</v>
       </c>
       <c r="R17" t="n">
         <v>32.98054008366383</v>
@@ -32263,10 +32263,10 @@
         <v>11.96416623336302</v>
       </c>
       <c r="T17" t="n">
-        <v>2.298327490358599</v>
+        <v>2.2983274903586</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04200255836177905</v>
+        <v>0.04200255836177906</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2809168747038091</v>
+        <v>0.2809168747038092</v>
       </c>
       <c r="H18" t="n">
-        <v>2.713065605692051</v>
+        <v>2.713065605692052</v>
       </c>
       <c r="I18" t="n">
-        <v>9.671918712389921</v>
+        <v>9.671918712389923</v>
       </c>
       <c r="J18" t="n">
-        <v>26.54048420173137</v>
+        <v>26.54048420173138</v>
       </c>
       <c r="K18" t="n">
-        <v>45.36191480688658</v>
+        <v>45.3619148068866</v>
       </c>
       <c r="L18" t="n">
-        <v>60.99469246584242</v>
+        <v>60.99469246584243</v>
       </c>
       <c r="M18" t="n">
-        <v>71.17792917385549</v>
+        <v>71.1779291738555</v>
       </c>
       <c r="N18" t="n">
-        <v>73.06179716254903</v>
+        <v>73.06179716254904</v>
       </c>
       <c r="O18" t="n">
-        <v>66.83727062305935</v>
+        <v>66.83727062305937</v>
       </c>
       <c r="P18" t="n">
-        <v>53.64280215287036</v>
+        <v>53.64280215287037</v>
       </c>
       <c r="Q18" t="n">
         <v>35.8587926376301</v>
@@ -32339,13 +32339,13 @@
         <v>17.44148806275054</v>
       </c>
       <c r="S18" t="n">
-        <v>5.217907738467679</v>
+        <v>5.21790773846768</v>
       </c>
       <c r="T18" t="n">
         <v>1.132292139705265</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01848137333577692</v>
+        <v>0.01848137333577693</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,31 +32385,31 @@
         <v>0.2355112711422501</v>
       </c>
       <c r="H19" t="n">
-        <v>2.093909301610188</v>
+        <v>2.093909301610189</v>
       </c>
       <c r="I19" t="n">
-        <v>7.082466226714213</v>
+        <v>7.082466226714215</v>
       </c>
       <c r="J19" t="n">
         <v>16.65064686975708</v>
       </c>
       <c r="K19" t="n">
-        <v>27.36212768361777</v>
+        <v>27.36212768361778</v>
       </c>
       <c r="L19" t="n">
-        <v>35.01410298418507</v>
+        <v>35.01410298418508</v>
       </c>
       <c r="M19" t="n">
-        <v>36.91746225732561</v>
+        <v>36.91746225732562</v>
       </c>
       <c r="N19" t="n">
-        <v>36.0396475194318</v>
+        <v>36.03964751943181</v>
       </c>
       <c r="O19" t="n">
-        <v>33.28844767017914</v>
+        <v>33.28844767017915</v>
       </c>
       <c r="P19" t="n">
-        <v>28.48401773887721</v>
+        <v>28.48401773887722</v>
       </c>
       <c r="Q19" t="n">
         <v>19.72085744082969</v>
@@ -32418,7 +32418,7 @@
         <v>10.5894431551779</v>
       </c>
       <c r="S19" t="n">
-        <v>4.104319152542666</v>
+        <v>4.104319152542667</v>
       </c>
       <c r="T19" t="n">
         <v>1.006275431244159</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5250319795222388</v>
+        <v>0.5250319795222383</v>
       </c>
       <c r="H41" t="n">
-        <v>5.37698376028213</v>
+        <v>5.376983760282125</v>
       </c>
       <c r="I41" t="n">
-        <v>20.24129539053113</v>
+        <v>20.24129539053111</v>
       </c>
       <c r="J41" t="n">
-        <v>44.56143297197566</v>
+        <v>44.56143297197562</v>
       </c>
       <c r="K41" t="n">
-        <v>66.78603666515204</v>
+        <v>66.78603666515198</v>
       </c>
       <c r="L41" t="n">
-        <v>82.85398410845578</v>
+        <v>82.85398410845571</v>
       </c>
       <c r="M41" t="n">
-        <v>92.19102157428439</v>
+        <v>92.19102157428431</v>
       </c>
       <c r="N41" t="n">
-        <v>93.68276868610195</v>
+        <v>93.68276868610188</v>
       </c>
       <c r="O41" t="n">
-        <v>88.46198193972769</v>
+        <v>88.46198193972761</v>
       </c>
       <c r="P41" t="n">
-        <v>75.5002549452724</v>
+        <v>75.50025494527235</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.69754717863221</v>
+        <v>56.69754717863216</v>
       </c>
       <c r="R41" t="n">
-        <v>32.98054008366387</v>
+        <v>32.98054008366383</v>
       </c>
       <c r="S41" t="n">
-        <v>11.96416623336303</v>
+        <v>11.96416623336302</v>
       </c>
       <c r="T41" t="n">
-        <v>2.298327490358602</v>
+        <v>2.2983274903586</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0420025583617791</v>
+        <v>0.04200255836177906</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2809168747038094</v>
+        <v>0.2809168747038092</v>
       </c>
       <c r="H42" t="n">
-        <v>2.713065605692055</v>
+        <v>2.713065605692052</v>
       </c>
       <c r="I42" t="n">
-        <v>9.671918712389932</v>
+        <v>9.671918712389923</v>
       </c>
       <c r="J42" t="n">
-        <v>26.5404842017314</v>
+        <v>26.54048420173138</v>
       </c>
       <c r="K42" t="n">
-        <v>45.36191480688663</v>
+        <v>45.3619148068866</v>
       </c>
       <c r="L42" t="n">
-        <v>60.99469246584248</v>
+        <v>60.99469246584243</v>
       </c>
       <c r="M42" t="n">
-        <v>71.17792917385556</v>
+        <v>71.1779291738555</v>
       </c>
       <c r="N42" t="n">
-        <v>73.0617971625491</v>
+        <v>73.06179716254904</v>
       </c>
       <c r="O42" t="n">
-        <v>66.83727062305942</v>
+        <v>66.83727062305937</v>
       </c>
       <c r="P42" t="n">
-        <v>53.64280215287042</v>
+        <v>53.64280215287037</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.85879263763013</v>
+        <v>35.8587926376301</v>
       </c>
       <c r="R42" t="n">
-        <v>17.44148806275056</v>
+        <v>17.44148806275054</v>
       </c>
       <c r="S42" t="n">
-        <v>5.217907738467685</v>
+        <v>5.21790773846768</v>
       </c>
       <c r="T42" t="n">
-        <v>1.132292139705267</v>
+        <v>1.132292139705265</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01848137333577694</v>
+        <v>0.01848137333577693</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2355112711422503</v>
+        <v>0.2355112711422501</v>
       </c>
       <c r="H43" t="n">
-        <v>2.093909301610191</v>
+        <v>2.093909301610189</v>
       </c>
       <c r="I43" t="n">
-        <v>7.082466226714221</v>
+        <v>7.082466226714215</v>
       </c>
       <c r="J43" t="n">
-        <v>16.6506468697571</v>
+        <v>16.65064686975708</v>
       </c>
       <c r="K43" t="n">
-        <v>27.3621276836178</v>
+        <v>27.36212768361778</v>
       </c>
       <c r="L43" t="n">
-        <v>35.01410298418512</v>
+        <v>35.01410298418508</v>
       </c>
       <c r="M43" t="n">
-        <v>36.91746225732565</v>
+        <v>36.91746225732562</v>
       </c>
       <c r="N43" t="n">
-        <v>36.03964751943184</v>
+        <v>36.03964751943181</v>
       </c>
       <c r="O43" t="n">
-        <v>33.28844767017917</v>
+        <v>33.28844767017915</v>
       </c>
       <c r="P43" t="n">
-        <v>28.48401773887725</v>
+        <v>28.48401773887722</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.72085744082971</v>
+        <v>19.72085744082969</v>
       </c>
       <c r="R43" t="n">
-        <v>10.58944315517791</v>
+        <v>10.5894431551779</v>
       </c>
       <c r="S43" t="n">
-        <v>4.10431915254267</v>
+        <v>4.104319152542667</v>
       </c>
       <c r="T43" t="n">
-        <v>1.00627543124416</v>
+        <v>1.006275431244159</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01284606933503185</v>
+        <v>0.01284606933503184</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5250319795222393</v>
+        <v>0.5250319795222383</v>
       </c>
       <c r="H44" t="n">
-        <v>5.376983760282134</v>
+        <v>5.376983760282125</v>
       </c>
       <c r="I44" t="n">
-        <v>20.24129539053115</v>
+        <v>20.24129539053111</v>
       </c>
       <c r="J44" t="n">
-        <v>44.5614329719757</v>
+        <v>44.56143297197562</v>
       </c>
       <c r="K44" t="n">
-        <v>66.7860366651521</v>
+        <v>66.78603666515198</v>
       </c>
       <c r="L44" t="n">
-        <v>82.85398410845585</v>
+        <v>82.85398410845571</v>
       </c>
       <c r="M44" t="n">
-        <v>92.19102157428446</v>
+        <v>92.19102157428431</v>
       </c>
       <c r="N44" t="n">
-        <v>93.68276868610204</v>
+        <v>93.68276868610188</v>
       </c>
       <c r="O44" t="n">
-        <v>88.46198193972776</v>
+        <v>88.46198193972761</v>
       </c>
       <c r="P44" t="n">
-        <v>75.50025494527247</v>
+        <v>75.50025494527235</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.69754717863226</v>
+        <v>56.69754717863216</v>
       </c>
       <c r="R44" t="n">
-        <v>32.9805400836639</v>
+        <v>32.98054008366383</v>
       </c>
       <c r="S44" t="n">
-        <v>11.96416623336304</v>
+        <v>11.96416623336302</v>
       </c>
       <c r="T44" t="n">
-        <v>2.298327490358604</v>
+        <v>2.2983274903586</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04200255836177914</v>
+        <v>0.04200255836177906</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2809168747038097</v>
+        <v>0.2809168747038092</v>
       </c>
       <c r="H45" t="n">
-        <v>2.713065605692057</v>
+        <v>2.713065605692052</v>
       </c>
       <c r="I45" t="n">
-        <v>9.671918712389939</v>
+        <v>9.671918712389923</v>
       </c>
       <c r="J45" t="n">
-        <v>26.54048420173143</v>
+        <v>26.54048420173138</v>
       </c>
       <c r="K45" t="n">
-        <v>45.36191480688667</v>
+        <v>45.3619148068866</v>
       </c>
       <c r="L45" t="n">
-        <v>60.99469246584254</v>
+        <v>60.99469246584243</v>
       </c>
       <c r="M45" t="n">
-        <v>71.17792917385562</v>
+        <v>71.1779291738555</v>
       </c>
       <c r="N45" t="n">
-        <v>73.06179716254917</v>
+        <v>73.06179716254904</v>
       </c>
       <c r="O45" t="n">
-        <v>66.83727062305948</v>
+        <v>66.83727062305937</v>
       </c>
       <c r="P45" t="n">
-        <v>53.64280215287047</v>
+        <v>53.64280215287037</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.85879263763017</v>
+        <v>35.8587926376301</v>
       </c>
       <c r="R45" t="n">
-        <v>17.44148806275058</v>
+        <v>17.44148806275054</v>
       </c>
       <c r="S45" t="n">
-        <v>5.217907738467689</v>
+        <v>5.21790773846768</v>
       </c>
       <c r="T45" t="n">
-        <v>1.132292139705267</v>
+        <v>1.132292139705265</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01848137333577696</v>
+        <v>0.01848137333577693</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2355112711422505</v>
+        <v>0.2355112711422501</v>
       </c>
       <c r="H46" t="n">
-        <v>2.093909301610192</v>
+        <v>2.093909301610189</v>
       </c>
       <c r="I46" t="n">
-        <v>7.082466226714227</v>
+        <v>7.082466226714215</v>
       </c>
       <c r="J46" t="n">
-        <v>16.65064686975711</v>
+        <v>16.65064686975708</v>
       </c>
       <c r="K46" t="n">
-        <v>27.36212768361783</v>
+        <v>27.36212768361778</v>
       </c>
       <c r="L46" t="n">
-        <v>35.01410298418514</v>
+        <v>35.01410298418508</v>
       </c>
       <c r="M46" t="n">
-        <v>36.91746225732568</v>
+        <v>36.91746225732562</v>
       </c>
       <c r="N46" t="n">
-        <v>36.03964751943187</v>
+        <v>36.03964751943181</v>
       </c>
       <c r="O46" t="n">
-        <v>33.2884476701792</v>
+        <v>33.28844767017915</v>
       </c>
       <c r="P46" t="n">
-        <v>28.48401773887727</v>
+        <v>28.48401773887722</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.72085744082973</v>
+        <v>19.72085744082969</v>
       </c>
       <c r="R46" t="n">
-        <v>10.58944315517792</v>
+        <v>10.5894431551779</v>
       </c>
       <c r="S46" t="n">
-        <v>4.104319152542674</v>
+        <v>4.104319152542667</v>
       </c>
       <c r="T46" t="n">
-        <v>1.006275431244161</v>
+        <v>1.006275431244159</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01284606933503186</v>
+        <v>0.01284606933503184</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35176,10 +35176,10 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>6.999161925771512</v>
       </c>
       <c r="M8" t="n">
-        <v>2.939619267058895</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="N8" t="n">
         <v>7.293863480540836</v>
@@ -35188,10 +35188,10 @@
         <v>7.293863480540836</v>
       </c>
       <c r="P8" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.059542658712616</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>7.293863480540836</v>
       </c>
       <c r="K9" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>6.999161925771512</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>7.293863480540836</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,7 +35334,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.999161925771512</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="M10" t="n">
         <v>7.293863480540836</v>
@@ -35343,10 +35343,10 @@
         <v>7.293863480540836</v>
       </c>
       <c r="O10" t="n">
-        <v>7.293863480540836</v>
+        <v>0.8771400270876728</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>6.12202189868384</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35428,7 +35428,7 @@
         <v>184.7187405822265</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.75708983734476</v>
+        <v>60.75708983734477</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>34.00847495575653</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>186.0103582999683</v>
+        <v>186.0103582999684</v>
       </c>
       <c r="L12" t="n">
         <v>311.5781312960626</v>
       </c>
       <c r="M12" t="n">
-        <v>19.19957035721598</v>
+        <v>416.9305123998876</v>
       </c>
       <c r="N12" t="n">
-        <v>425.8335505624414</v>
+        <v>425.8335505624415</v>
       </c>
       <c r="O12" t="n">
         <v>337.4227443375247</v>
       </c>
       <c r="P12" t="n">
-        <v>254.219034309433</v>
+        <v>8.353509371560142</v>
       </c>
       <c r="Q12" t="n">
-        <v>117.8569421490422</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>49.56890346634728</v>
+        <v>49.56890346634729</v>
       </c>
       <c r="K13" t="n">
         <v>134.3448194901536</v>
@@ -35586,7 +35586,7 @@
         <v>156.3631411619302</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.71725908935065</v>
+        <v>61.71725908935066</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>43.90215583741337</v>
+        <v>43.9021558374132</v>
       </c>
       <c r="K14" t="n">
         <v>189.3096609703073</v>
@@ -35665,7 +35665,7 @@
         <v>184.7187405822265</v>
       </c>
       <c r="Q14" t="n">
-        <v>60.75708983734476</v>
+        <v>60.75708983734477</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>34.00847495575653</v>
       </c>
       <c r="K15" t="n">
-        <v>186.0103582999683</v>
+        <v>186.0103582999684</v>
       </c>
       <c r="L15" t="n">
-        <v>311.5781312960626</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>416.9305123998876</v>
@@ -35738,13 +35738,13 @@
         <v>425.8335505624415</v>
       </c>
       <c r="O15" t="n">
-        <v>57.54874444389541</v>
+        <v>337.4227443375247</v>
       </c>
       <c r="P15" t="n">
-        <v>254.219034309433</v>
+        <v>168.0662235628242</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>117.8569421490422</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>49.56890346634731</v>
+        <v>49.56890346634729</v>
       </c>
       <c r="K16" t="n">
         <v>134.3448194901536</v>
@@ -35814,7 +35814,7 @@
         <v>208.8719717786033</v>
       </c>
       <c r="N16" t="n">
-        <v>211.9937687084389</v>
+        <v>211.9937687084388</v>
       </c>
       <c r="O16" t="n">
         <v>189.6137572245194</v>
@@ -35823,7 +35823,7 @@
         <v>156.3631411619302</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.71725908935068</v>
+        <v>61.71725908935066</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>184.7187405822265</v>
       </c>
       <c r="Q17" t="n">
-        <v>60.75708983734476</v>
+        <v>60.75708983734477</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>186.0103582999684</v>
       </c>
       <c r="L18" t="n">
         <v>311.5781312960626</v>
@@ -35972,16 +35972,16 @@
         <v>416.9305123998876</v>
       </c>
       <c r="N18" t="n">
-        <v>425.8335505624415</v>
+        <v>62.11108347552653</v>
       </c>
       <c r="O18" t="n">
         <v>337.4227443375247</v>
       </c>
       <c r="P18" t="n">
-        <v>194.3638676715287</v>
+        <v>254.219034309433</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>117.8569421490422</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>12.58771796578442</v>
+        <v>12.58771796578443</v>
       </c>
       <c r="L19" t="n">
-        <v>72.47523321319436</v>
+        <v>72.47523321319437</v>
       </c>
       <c r="M19" t="n">
         <v>87.11487025423418</v>
       </c>
       <c r="N19" t="n">
-        <v>90.23666718406969</v>
+        <v>90.2366671840697</v>
       </c>
       <c r="O19" t="n">
-        <v>67.8566557001502</v>
+        <v>67.85665570015021</v>
       </c>
       <c r="P19" t="n">
-        <v>34.60603963756105</v>
+        <v>34.60603963756106</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>324.8458330678892</v>
       </c>
       <c r="O20" t="n">
-        <v>260.1484143168382</v>
+        <v>260.1484143168384</v>
       </c>
       <c r="P20" t="n">
         <v>184.7187405822265</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>34.00847495575653</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>186.0103582999684</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>311.5781312960626</v>
+        <v>133.8660225091161</v>
       </c>
       <c r="M21" t="n">
         <v>416.9305123998876</v>
       </c>
       <c r="N21" t="n">
-        <v>28.10260851977011</v>
+        <v>425.8335505624415</v>
       </c>
       <c r="O21" t="n">
         <v>337.4227443375247</v>
@@ -36373,7 +36373,7 @@
         <v>260.1484143168382</v>
       </c>
       <c r="P23" t="n">
-        <v>184.7187405822265</v>
+        <v>184.7187405822271</v>
       </c>
       <c r="Q23" t="n">
         <v>60.75708983734477</v>
@@ -36443,16 +36443,16 @@
         <v>311.5781312960626</v>
       </c>
       <c r="M24" t="n">
-        <v>357.075345761983</v>
+        <v>416.9305123998876</v>
       </c>
       <c r="N24" t="n">
-        <v>425.8335505624415</v>
+        <v>425.8335505624416</v>
       </c>
       <c r="O24" t="n">
         <v>337.4227443375247</v>
       </c>
       <c r="P24" t="n">
-        <v>254.219034309433</v>
+        <v>194.3638676715292</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36598,16 +36598,16 @@
         <v>331.4765005851348</v>
       </c>
       <c r="L26" t="n">
-        <v>429.516232260014</v>
+        <v>429.5162322600141</v>
       </c>
       <c r="M26" t="n">
-        <v>477.2643586250667</v>
+        <v>477.2643586250668</v>
       </c>
       <c r="N26" t="n">
-        <v>467.0126726827167</v>
+        <v>467.0126726827163</v>
       </c>
       <c r="O26" t="n">
-        <v>402.3152539316658</v>
+        <v>402.3152539316657</v>
       </c>
       <c r="P26" t="n">
         <v>326.885580197054</v>
@@ -36616,7 +36616,7 @@
         <v>202.9239294521723</v>
       </c>
       <c r="R26" t="n">
-        <v>33.29655699761429</v>
+        <v>33.29655699761428</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>11.19962874129381</v>
       </c>
       <c r="K28" t="n">
-        <v>12.58771796578443</v>
+        <v>154.754557580612</v>
       </c>
       <c r="L28" t="n">
-        <v>83.67486195448814</v>
+        <v>72.47523321319437</v>
       </c>
       <c r="M28" t="n">
-        <v>87.11487025423418</v>
+        <v>229.2817098690617</v>
       </c>
       <c r="N28" t="n">
         <v>232.4035067988972</v>
       </c>
       <c r="O28" t="n">
-        <v>210.0234953149777</v>
+        <v>67.85665570015021</v>
       </c>
       <c r="P28" t="n">
-        <v>176.7728792523886</v>
+        <v>34.60603963756106</v>
       </c>
       <c r="Q28" t="n">
         <v>82.12699717980904</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>186.0689954522408</v>
+        <v>186.0689954522407</v>
       </c>
       <c r="K29" t="n">
-        <v>331.4765005851349</v>
+        <v>331.4765005851348</v>
       </c>
       <c r="L29" t="n">
         <v>429.5162322600141</v>
@@ -36844,7 +36844,7 @@
         <v>467.0126726827168</v>
       </c>
       <c r="O29" t="n">
-        <v>402.3152539316658</v>
+        <v>402.3152539316657</v>
       </c>
       <c r="P29" t="n">
         <v>326.885580197054</v>
@@ -36853,7 +36853,7 @@
         <v>202.9239294521723</v>
       </c>
       <c r="R29" t="n">
-        <v>33.29655699761431</v>
+        <v>33.29655699761428</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>69.97864155680567</v>
       </c>
       <c r="K31" t="n">
-        <v>105.9143438868868</v>
+        <v>12.58771796578443</v>
       </c>
       <c r="L31" t="n">
-        <v>72.47523321319437</v>
+        <v>214.6420728280219</v>
       </c>
       <c r="M31" t="n">
-        <v>229.2817098690617</v>
+        <v>87.11487025423418</v>
       </c>
       <c r="N31" t="n">
         <v>232.4035067988972</v>
       </c>
       <c r="O31" t="n">
-        <v>210.0234953149778</v>
+        <v>151.2444824994658</v>
       </c>
       <c r="P31" t="n">
         <v>34.60603963756106</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>82.12699717980904</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>187.9560638119262</v>
       </c>
       <c r="K32" t="n">
-        <v>333.3635689448203</v>
+        <v>287.4992013402569</v>
       </c>
       <c r="L32" t="n">
         <v>431.4033006196996</v>
@@ -37087,7 +37087,7 @@
         <v>328.7726485567395</v>
       </c>
       <c r="Q32" t="n">
-        <v>158.946630207294</v>
+        <v>204.8109978118578</v>
       </c>
       <c r="R32" t="n">
         <v>35.18362535729977</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>71.86570991649116</v>
       </c>
       <c r="K34" t="n">
-        <v>69.44700294927777</v>
+        <v>156.6416259402974</v>
       </c>
       <c r="L34" t="n">
-        <v>216.5291411877074</v>
+        <v>72.47523321319437</v>
       </c>
       <c r="M34" t="n">
-        <v>231.1687782287472</v>
+        <v>87.11487025423418</v>
       </c>
       <c r="N34" t="n">
-        <v>90.2366671840697</v>
+        <v>234.2905751585827</v>
       </c>
       <c r="O34" t="n">
-        <v>67.85665570015021</v>
+        <v>112.8900732021708</v>
       </c>
       <c r="P34" t="n">
-        <v>178.6599476120741</v>
+        <v>34.60603963756106</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>84.01406553949452</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>6.175778909450161</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>43.9021558374132</v>
@@ -37327,7 +37327,7 @@
         <v>60.75708983734477</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>6.175778909450304</v>
       </c>
       <c r="S35" t="n">
         <v>26.76600421588554</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>34.00847495575653</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>186.0103582999684</v>
       </c>
       <c r="L36" t="n">
-        <v>311.5781312960626</v>
+        <v>56.32643358540091</v>
       </c>
       <c r="M36" t="n">
         <v>416.9305123998876</v>
@@ -37400,7 +37400,7 @@
         <v>337.4227443375247</v>
       </c>
       <c r="P36" t="n">
-        <v>218.9861698544964</v>
+        <v>254.219034309433</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37564,10 +37564,10 @@
         <v>60.75708983734477</v>
       </c>
       <c r="R38" t="n">
-        <v>32.94178312533684</v>
+        <v>6.175778909451223</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>26.76600421588554</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>34.00847495575653</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>186.0103582999684</v>
@@ -37628,19 +37628,19 @@
         <v>311.5781312960626</v>
       </c>
       <c r="M39" t="n">
-        <v>381.2446168777092</v>
+        <v>416.9305123998876</v>
       </c>
       <c r="N39" t="n">
         <v>434.1530315048096</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>337.4227443375247</v>
       </c>
       <c r="P39" t="n">
-        <v>254.219034309433</v>
+        <v>32.97581155452876</v>
       </c>
       <c r="Q39" t="n">
-        <v>117.8569421490422</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>8.917773012583393</v>
+        <v>8.917773012583346</v>
       </c>
       <c r="J41" t="n">
-        <v>144.017890347471</v>
+        <v>43.9021558374132</v>
       </c>
       <c r="K41" t="n">
-        <v>189.3096609703074</v>
+        <v>189.3096609703073</v>
       </c>
       <c r="L41" t="n">
-        <v>287.3493926451866</v>
+        <v>287.3493926451865</v>
       </c>
       <c r="M41" t="n">
-        <v>335.0975190102393</v>
+        <v>335.0975190102392</v>
       </c>
       <c r="N41" t="n">
-        <v>324.8458330678893</v>
+        <v>518.7466185580655</v>
       </c>
       <c r="O41" t="n">
-        <v>260.1484143168383</v>
+        <v>260.1484143168382</v>
       </c>
       <c r="P41" t="n">
-        <v>378.6195260724028</v>
+        <v>284.8344750922837</v>
       </c>
       <c r="Q41" t="n">
-        <v>60.75708983734482</v>
+        <v>60.75708983734477</v>
       </c>
       <c r="R41" t="n">
-        <v>85.03050287296307</v>
+        <v>85.03050287296301</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>34.00847495575655</v>
+        <v>34.00847495575653</v>
       </c>
       <c r="K42" t="n">
         <v>186.0103582999684</v>
       </c>
       <c r="L42" t="n">
-        <v>311.5781312960627</v>
+        <v>311.5781312960626</v>
       </c>
       <c r="M42" t="n">
         <v>416.9305123998876</v>
       </c>
       <c r="N42" t="n">
-        <v>416.0674044055506</v>
+        <v>443.5196971985947</v>
       </c>
       <c r="O42" t="n">
-        <v>337.4227443375248</v>
+        <v>337.4227443375247</v>
       </c>
       <c r="P42" t="n">
-        <v>254.2190343094331</v>
+        <v>254.219034309433</v>
       </c>
       <c r="Q42" t="n">
-        <v>117.8569421490422</v>
+        <v>90.40464935599749</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37911,7 +37911,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>0.6275257828603655</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -37932,28 +37932,28 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.6275257828599708</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>12.58771796578445</v>
+        <v>12.58771796578443</v>
       </c>
       <c r="L43" t="n">
-        <v>72.4752332131944</v>
+        <v>72.47523321319437</v>
       </c>
       <c r="M43" t="n">
-        <v>87.11487025423422</v>
+        <v>87.11487025423418</v>
       </c>
       <c r="N43" t="n">
-        <v>90.23666718406973</v>
+        <v>90.2366671840697</v>
       </c>
       <c r="O43" t="n">
-        <v>67.85665570015024</v>
+        <v>67.85665570015021</v>
       </c>
       <c r="P43" t="n">
-        <v>34.60603963756108</v>
+        <v>34.60603963756106</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>8.917773012583353</v>
+        <v>8.917773012583346</v>
       </c>
       <c r="J44" t="n">
-        <v>237.8029413275895</v>
+        <v>43.9021558374132</v>
       </c>
       <c r="K44" t="n">
-        <v>189.3096609703074</v>
+        <v>189.3096609703073</v>
       </c>
       <c r="L44" t="n">
-        <v>287.3493926451867</v>
+        <v>287.3493926451865</v>
       </c>
       <c r="M44" t="n">
-        <v>335.0975190102394</v>
+        <v>335.0975190102392</v>
       </c>
       <c r="N44" t="n">
-        <v>324.8458330678894</v>
+        <v>324.8458330678892</v>
       </c>
       <c r="O44" t="n">
-        <v>260.1484143168384</v>
+        <v>454.0491998070145</v>
       </c>
       <c r="P44" t="n">
-        <v>284.8344750922839</v>
+        <v>184.7187405822265</v>
       </c>
       <c r="Q44" t="n">
-        <v>60.75708983734487</v>
+        <v>160.8728243474028</v>
       </c>
       <c r="R44" t="n">
-        <v>85.03050287296304</v>
+        <v>85.03050287296301</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>6.556182162712019</v>
+        <v>34.00847495575653</v>
       </c>
       <c r="K45" t="n">
-        <v>186.0103582999685</v>
+        <v>186.0103582999684</v>
       </c>
       <c r="L45" t="n">
-        <v>311.5781312960627</v>
+        <v>311.5781312960626</v>
       </c>
       <c r="M45" t="n">
-        <v>416.9305123998877</v>
+        <v>416.9305123998876</v>
       </c>
       <c r="N45" t="n">
-        <v>443.5196971985948</v>
+        <v>443.5196971985947</v>
       </c>
       <c r="O45" t="n">
-        <v>337.4227443375248</v>
+        <v>337.4227443375247</v>
       </c>
       <c r="P45" t="n">
-        <v>254.2190343094331</v>
+        <v>254.219034309433</v>
       </c>
       <c r="Q45" t="n">
-        <v>117.8569421490423</v>
+        <v>90.40464935599795</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38148,13 +38148,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.6275257828602077</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.6275257828603584</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>12.58771796578448</v>
+        <v>12.58771796578443</v>
       </c>
       <c r="L46" t="n">
-        <v>72.47523321319443</v>
+        <v>72.47523321319437</v>
       </c>
       <c r="M46" t="n">
-        <v>87.11487025423425</v>
+        <v>87.11487025423418</v>
       </c>
       <c r="N46" t="n">
-        <v>90.23666718406977</v>
+        <v>90.2366671840697</v>
       </c>
       <c r="O46" t="n">
-        <v>67.85665570015027</v>
+        <v>67.85665570015021</v>
       </c>
       <c r="P46" t="n">
-        <v>34.60603963756111</v>
+        <v>34.60603963756106</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
